--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ55"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,56 +564,6 @@
           <t>timestamp</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>maha_ok</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>maha_fallback</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>maha_traceS</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>maha_lam</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>maha_rank_Sreg</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>maha_cond_Sreg</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>maha_min</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>maha_med</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>maha_max</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>maha_mean</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -631,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -646,51 +596,51 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[121, 120, 150, 6, 31]</t>
+          <t>[121, 120, 137, 150, 142, 45, 6]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.571254182457916, 0.7188030116408483, 0.8161088220553884, 0.8208680870948795]</t>
+          <t>[0.36870282705068963, 0.571254182457916, 0.8399570029762644, 0.7188030116408483, 0.915922586578981, 0.9643759308650648, 0.8161088220553884]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[121, 45, 139, 9, 102]</t>
+          <t>[121, 45, 139, 102, 9, 58, 143]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.9643759308650648, 1.1263236539931059, 1.2196421966004263, 1.2241735099679416]</t>
+          <t>[0.36870282705068963, 0.9643759308650648, 1.1263236539931059, 1.2241735099679416, 1.2196421966004263, 1.470400260947273, 1.5570746533140791]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8161088220553884</v>
+        <v>0.7022135007131695</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -699,38 +649,8 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.7518772093890281</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.354191215433646e-05</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>6674.112177447277</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>21.69317514775868</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>21.84085203781866</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>21.94498796632389</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>21.83517340540271</v>
+          <t>2025-10-12T23:47:58.200855</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -749,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -764,51 +684,51 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[76, 16, 74, 37, 111]</t>
+          <t>[76, 16, 37, 55, 143, 74, 124]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108793636307856, 0.3007785898777099, 0.5765435063524058, 0.5837685871344127, 0.6010496075486401]</t>
+          <t>[0.29108793636307856, 0.3007785898777099, 0.5837685871344127, 0.6349888467834518, 0.6392179051246156, 0.5765435063524058, 0.6429941276074913]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[143, 139, 102, 153, 121]</t>
+          <t>[143, 139, 102, 153, 121, 58, 7]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.6392179051246156, 0.7289855999382798, 0.8478721364650169, 0.9712824467055972, 1.0848981146158845]</t>
+          <t>[0.6392179051246156, 0.7289855999382798, 0.8478721364650169, 0.9712824467055972, 1.0848981146158845, 1.3480260842400091, 1.2196421966004263]</t>
         </is>
       </c>
       <c r="U3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5837685871344127</v>
+        <v>0.7351268328894733</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,38 +737,8 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.7927260048270923</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>8.808066720301026e-05</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5681.451385720607</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20.12449026876282</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>20.17947419774037</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>20.33145954122188</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>20.20587163514571</v>
+          <t>2025-10-12T23:47:58.201195</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -867,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -882,14 +772,14 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -899,34 +789,34 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[50, 159, 10, 13, 26]</t>
+          <t>[10, 13, 159, 26, 4, 163, 115]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.5119735564044345, 1.518245731033573, 1.5354786819005746, 1.5763796645421633, 1.601565229324348]</t>
+          <t>[1.5354786819005746, 1.5763796645421633, 1.518245731033573, 1.601565229324348, 1.8141893925589672, 2.4762693355922436, 1.6455757268203273]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[163, 169, 58, 45, 168]</t>
+          <t>[163, 168, 169, 21, 58, 45, 102]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 2.5544267277225856, 2.661673534050169, 2.6628466326195666, 2.9099357041697727]</t>
+          <t>[2.4762693355922436, 2.9099357041697727, 2.5544267277225856, 3.135508093288406, 2.661673534050169, 2.6628466326195666, 2.9838959810785206]</t>
         </is>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.576379664542163</v>
+        <v>0.8059630735203358</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -935,38 +825,8 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>5.175634130737933</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.0005750704589708815</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5184.885743040358</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19.50636018716012</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.73092781171657</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>20.14191174514351</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>19.76446639576766</v>
+          <t>2025-10-12T23:47:58.201731</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -985,13 +845,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -1000,14 +860,14 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
@@ -1017,34 +877,34 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[161, 167, 168, 123, 1]</t>
+          <t>[161, 167, 168, 1, 123, 130, 72]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.46185233475496995, 0.46297917576952363, 0.7553792977804442, 0.8820956202336345, 0.8820956202336345]</t>
+          <t>[0.46185233475496995, 0.46297917576952363, 0.7553792977804442, 0.8820956202336345, 0.8820956202336345, 1.2559472641199887, 1.800462053004792]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[168, 58, 7, 121, 45]</t>
+          <t>[168, 58, 15, 163, 45, 7, 121]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.353507723745344, 2.417296510745149, 2.481662343266953, 2.6655485707291344]</t>
+          <t>[0.7553792977804442, 2.353507723745344, 3.135508093288406, 3.852336164887893, 2.6655485707291344, 2.417296510745149, 2.481662343266953]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8820956202336345</v>
+        <v>0.5129622213260127</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1053,38 +913,8 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1.77555365018603</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.0001972837389095589</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>6373.211375072866</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>40.12312237076743</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>40.21314560188513</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>40.30867970511051</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>40.20277609532434</v>
+          <t>2025-10-12T23:47:58.201731</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1100,16 +930,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -1118,51 +948,51 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>0.4</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N6" t="b">
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[77, 107, 7, 121, 29]</t>
+          <t>[107, 77, 121, 7, 29, 169, 36]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0]</t>
+          <t>[0, 0, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.9164440119967676, 0.9198494393336901, 0.9643759308650648, 1.015355534006097, 1.1352381971484793]</t>
+          <t>[0.9198494393336901, 0.9164440119967676, 1.015355534006097, 0.9643759308650648, 1.1352381971484793, 1.309078032215393, 1.2096121380822629]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[7, 121, 169, 139, 9]</t>
+          <t>[7, 121, 169, 139, 102, 58, 9]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.9643759308650648, 1.015355534006097, 1.309078032215393, 1.6240327394665033, 1.6671735468792106]</t>
+          <t>[0.9643759308650648, 1.015355534006097, 1.309078032215393, 1.6240327394665033, 1.7274423917541522, 1.9255385383437427, 1.6671735468792106]</t>
         </is>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.015355534006097</v>
+        <v>0.8182832624091771</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1171,38 +1001,8 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1.105593113755899</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.000122843679306211</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5952.69544594598</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18.01970194125326</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>18.28848635636237</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>18.4184757312721</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>18.26186641544573</v>
+          <t>2025-10-12T23:47:58.202569</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1221,13 +1021,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1239,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
@@ -1253,34 +1053,34 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[71, 103, 79, 83, 90]</t>
+          <t>[48, 71, 155, 79, 83, 6, 103]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[0.7342474404872175, 0.8839927453713303, 0.9219694314401171, 0.9574600932486723, 0.9910982703180736]</t>
+          <t>[1.0445740521454645, 0.7342474404872175, 1.350972587814987, 0.9219694314401171, 0.9574600932486723, 1.0273458703387217, 0.8839927453713303]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[102, 139, 143, 9, 7]</t>
+          <t>[102, 139, 143, 9, 7, 121, 168]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.015057799175586, 1.0873292441229583, 1.1586569849203083, 1.3480260842400091, 1.470400260947273]</t>
+          <t>[1.015057799175586, 1.0873292441229583, 1.1586569849203083, 1.3480260842400091, 1.470400260947273, 1.4868313662359702, 2.2044641100359974]</t>
         </is>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9574600932486723</v>
+        <v>0.8288065347223699</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1289,38 +1089,8 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.4638629732814245</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>5.154033036460272e-05</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>6523.366828875364</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>112.8829749453602</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>112.9154032619169</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>113.003303163694</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>112.9378524049586</v>
+          <t>2025-10-12T23:47:58.203101</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1339,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1354,51 +1124,51 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[139, 97, 17, 71, 132]</t>
+          <t>[97, 139, 17, 71, 132, 119, 79]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.290743137515647, 0.30986970738125885, 0.4762486808158445, 0.6092232120953457]</t>
+          <t>[0.290743137515647, 0.285043916571243, 0.30986970738125885, 0.4762486808158445, 0.6092232120953457, 0.6937357956386917, 0.6997585091441121]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[139, 143, 9, 58, 7]</t>
+          <t>[139, 143, 9, 58, 7, 121, 153]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6743329932424019, 0.8478721364650169, 1.015057799175586, 1.2241735099679416]</t>
+          <t>[0.285043916571243, 0.6743329932424019, 0.8478721364650169, 1.015057799175586, 1.2241735099679416, 1.3019104729087863, 1.6027152759797092]</t>
         </is>
       </c>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4762486808158445</v>
+        <v>0.6508315759700464</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1407,38 +1177,8 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.393272</t>
-        </is>
-      </c>
-      <c r="AA8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.651390932409643</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7.23767702677381e-05</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>4595.403497488927</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>28.9848515598194</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29.13200771739913</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29.13853316368308</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>29.10111244475375</v>
+          <t>2025-10-12T23:47:58.203101</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1457,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1472,51 +1212,51 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[7, 120, 150, 31, 6]</t>
+          <t>[7, 120, 150, 31, 45, 6, 137]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.5519547370633832, 0.7350731770769507, 0.7528594013729141, 0.8294772913953069]</t>
+          <t>[0.36870282705068963, 0.5519547370633832, 0.7350731770769507, 0.7528594013729141, 1.015355534006097, 0.8294772913953069, 1.0044478913104573]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[7, 45, 9, 139, 102]</t>
+          <t>[7, 45, 9, 139, 102, 58, 143]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 1.015355534006097, 1.0848981146158845, 1.1840853595030576, 1.3019104729087863]</t>
+          <t>[0.36870282705068963, 1.015355534006097, 1.0848981146158845, 1.1840853595030576, 1.3019104729087863, 1.4868313662359702, 1.475155267747228]</t>
         </is>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7528594013729141</v>
+        <v>0.7623549783731214</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1525,38 +1265,8 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0.7458659084999687</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.287398983332986e-05</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>6768.268920207085</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>21.27650220112375</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21.44944285543849</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21.48506772657861</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21.41295210177222</v>
+          <t>2025-10-12T23:47:58.203101</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1575,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1590,51 +1300,51 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[102, 97, 132, 17, 124]</t>
+          <t>[102, 97, 132, 17, 119, 84, 124]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.3613020375403079, 0.3682554256573937, 0.38688552012503286, 0.567023673930235]</t>
+          <t>[0.285043916571243, 0.3613020375403079, 0.3682554256573937, 0.38688552012503286, 0.5760992767784409, 0.6288485199178419, 0.567023673930235]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[102, 143, 9, 58, 7]</t>
+          <t>[102, 143, 9, 58, 7, 121, 153]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6349515184349481, 0.7289855999382798, 1.0873292441229583, 1.1263236539931059]</t>
+          <t>[0.285043916571243, 0.6349515184349481, 0.7289855999382798, 1.0873292441229583, 1.1263236539931059, 1.1840853595030576, 1.475092862204293]</t>
         </is>
       </c>
       <c r="U10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3868855201250329</v>
+        <v>0.5833289261393296</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1643,38 +1353,8 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.6672450308793338</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.413833676437043e-05</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>4547.891114680578</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>22.67966019477147</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22.76072060939297</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>22.81256882404833</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>22.75969408425276</v>
+          <t>2025-10-12T23:47:58.204097</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -1693,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1708,51 +1388,51 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[63, 76, 110, 147, 111]</t>
+          <t>[76, 63, 97, 147, 110, 57, 9]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.3796159808557999, 0.39793813337752815, 0.466880727756286, 0.5109725664891919, 0.5331716894988816]</t>
+          <t>[0.39793813337752815, 0.3796159808557999, 0.547131824675983, 0.5109725664891919, 0.466880727756286, 0.5868905832144952, 0.6392179051246156]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[139, 9, 102, 153, 58]</t>
+          <t>[139, 102, 9, 153, 58, 121, 7]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.6349515184349481, 0.6392179051246156, 0.6743329932424019, 1.1125232778579464, 1.1586569849203083]</t>
+          <t>[0.6349515184349481, 0.6743329932424019, 0.6392179051246156, 1.1125232778579464, 1.1586569849203083, 1.475155267747228, 1.5570746533140791]</t>
         </is>
       </c>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5109725664891919</v>
+        <v>0.6007126447186697</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1761,38 +1441,8 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.7667588613804547</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.519542904227275e-05</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7014.299828199894</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>32.95914520450896</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>33.01217062008077</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>33.07164178315703</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>33.0151938952062</v>
+          <t>2025-10-12T23:47:58.204097</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -1811,13 +1461,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1826,14 +1476,14 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1843,34 +1493,34 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[160, 74, 16, 111, 128]</t>
+          <t>[66, 160, 82, 74, 9, 16, 76]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.7418466361563256, 0.8169284393537438, 0.8513187214136887, 0.9142994441251954, 0.9251038424629177]</t>
+          <t>[1.022522729127132, 0.7418466361563256, 1.091730518109694, 0.8169284393537438, 0.9712824467055972, 0.8513187214136887, 0.9974814909302543]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[9, 143, 139, 102, 121]</t>
+          <t>[9, 143, 139, 102, 58, 121, 169]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.9712824467055972, 1.1125232778579464, 1.475092862204293, 1.6027152759797092, 1.9131038424109268]</t>
+          <t>[0.9712824467055972, 1.1125232778579464, 1.475092862204293, 1.6027152759797092, 2.0702255154153795, 1.9131038424109268, 2.3420474164918956]</t>
         </is>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.9142994441251954</v>
+        <v>0.8640735583738509</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1879,38 +1529,8 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0.4524080573486984</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.026756192763315e-05</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>6357.300308404853</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>53.57792249124577</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>53.68855862971566</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>53.82701541422822</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>53.69536783134771</v>
+          <t>2025-10-12T23:47:58.204097</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1929,13 +1549,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1944,14 +1564,14 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1961,34 +1581,34 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[4, 15, 106, 115, 151]</t>
+          <t>[4, 15, 106, 118, 27, 13, 89]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.9609936844987668, 2.4762693355922436, 2.5488143551159124, 2.642820500315813, 2.7597372249248537]</t>
+          <t>[1.9609936844987668, 2.4762693355922436, 2.5488143551159124, 3.9857840791532855, 2.814430996857044, 2.781341715903314, 3.241391020906572]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[15, 45, 169, 21, 168]</t>
+          <t>[15, 21, 168, 169, 45, 58, 7]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 3.735630166896788, 3.849267075737102, 3.852336164887893, 3.940240431990059]</t>
+          <t>[2.4762693355922436, 3.852336164887893, 3.940240431990059, 3.849267075737102, 3.735630166896788, 4.553111058292238, 4.460374817552124]</t>
         </is>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>2.642820500315813</v>
+        <v>1.012813522909019</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1997,38 +1617,8 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB13" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3.880943908077152</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.0004312159897863503</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>6465.676287917239</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>65.09859334992808</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>65.24593032158931</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>65.52436305336661</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>65.30230987332881</v>
+          <t>2025-10-12T23:47:58.205100</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2047,13 +1637,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -2062,14 +1652,14 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -2079,34 +1669,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[123, 1, 21, 167, 161]</t>
+          <t>[1, 123, 21, 167, 161, 3, 53]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.44201139323274474, 0.44201139323274474, 0.7553792977804442, 0.817289129845502, 1.0266676237864174]</t>
+          <t>[0.44201139323274474, 0.44201139323274474, 0.7553792977804442, 0.817289129845502, 1.0266676237864174, 1.20002024796093, 1.2940247242682115]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[21, 58, 7, 121, 45]</t>
+          <t>[21, 58, 15, 163, 7, 45, 121]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.2044641100359974, 2.5074243448209392, 2.5194056150095907, 2.7999065735366058]</t>
+          <t>[0.7553792977804442, 2.2044641100359974, 2.9099357041697727, 3.940240431990059, 2.5074243448209392, 2.7999065735366058, 2.5194056150095907]</t>
         </is>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.8172891298455019</v>
+        <v>0.5337961185523034</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2115,38 +1705,8 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1.741173543415137</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.0001934637270461263</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>5977.511724599143</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>39.50219924795134</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>39.57121957692411</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>39.690986015278</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>39.57723305652378</v>
+          <t>2025-10-12T23:47:58.205100</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2165,13 +1725,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>46.76517682690587</v>
+        <v>1.098621319767587</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -2180,51 +1740,51 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
       </c>
       <c r="O15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[75, 36, 29, 69, 73]</t>
+          <t>[75, 36, 29, 107, 69, 73, 45]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8769890823808907, 0.9809583086635929, 0.9985459325462515, 1.1135126667475501, 1.1277871921736737]</t>
+          <t>[0.8769890823808907, 0.9809583086635929, 0.9985459325462515, 1.3458586455349735, 1.1135126667475501, 1.1277871921736737, 1.309078032215393]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[45, 139, 121, 7, 9]</t>
+          <t>[45, 15, 7, 153, 139, 121, 102]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.309078032215393, 1.9811919545498997, 1.9998280260557344, 2.015712067298128, 2.0302161322735186]</t>
+          <t>[1.309078032215393, 2.5544267277225856, 2.015712067298128, 2.3420474164918956, 1.9811919545498997, 1.9998280260557344, 2.1122709618390516]</t>
         </is>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.11351266674755</v>
+        <v>0.784294935453643</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2233,38 +1793,8 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.394280</t>
-        </is>
-      </c>
-      <c r="AA15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.6690236834646688</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7.433596482940765e-05</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>6398.147065402998</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>46.66997557363447</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>46.77115701744011</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>47.05910744267351</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>46.82022621116671</v>
+          <t>2025-10-12T23:47:58.205100</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2283,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -2298,51 +1828,51 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
       </c>
       <c r="O16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[122, 114, 134, 112, 125]</t>
+          <t>[122, 104, 114, 112, 59, 38, 134]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 5.758371013344655, 5.858822564490876, 6.487488755518677, 6.512109778877185]</t>
+          <t>[3.548220758848561, 8.691211386839777, 5.758371013344655, 6.487488755518677, 9.90292972678089, 6.694373693143342, 5.858822564490876]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[94, 156, 118, 104, 81]</t>
+          <t>[104, 94, 118, 156, 81, 87, 60]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[7.731836095243678, 8.581772163170536, 8.609739822750038, 8.691211386839777, 8.94639168349315]</t>
+          <t>[8.691211386839777, 7.731836095243678, 8.609739822750038, 8.581772163170536, 8.94639168349315, 9.074630557371929, 9.319384200728924]</t>
         </is>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>6.487488755518677</v>
+        <v>1.13595142890848</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2351,38 +1881,8 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.407397</t>
-        </is>
-      </c>
-      <c r="AA16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>28.07417274553845</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.00311935252728205</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>6516.88380723021</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>103.2993152060116</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>103.3745951917552</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>103.4254577626573</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>103.3722595278563</v>
+          <t>2025-10-12T23:47:58.242032</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2401,13 +1901,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -2416,14 +1916,14 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -2433,34 +1933,34 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[156, 94, 87, 109, 162]</t>
+          <t>[156, 109, 87, 81, 94, 162, 129]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.2133899299550968, 2.3008901008490206, 2.4434334544048664, 2.550539891650585]</t>
+          <t>[1.7238609439707153, 2.4434334544048664, 2.3008901008490206, 2.627912796286365, 2.2133899299550968, 2.550539891650585, 3.038968467681727]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[156, 94, 87, 109, 81]</t>
+          <t>[156, 87, 94, 109, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.2133899299550968, 2.3008901008490206, 2.4434334544048664, 2.627912796286365]</t>
+          <t>[1.7238609439707153, 2.3008901008490206, 2.2133899299550968, 2.4434334544048664, 2.627912796286365, 3.038968467681727, 6.031808407587342]</t>
         </is>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>2.443433454404866</v>
+        <v>0.6524128611037427</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2469,38 +1969,8 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>4.143532779280307</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.0004603925310311453</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>4117.315474226829</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>29.04832081279323</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>29.09517566478608</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>29.24436620945691</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>29.12948955355608</v>
+          <t>2025-10-12T23:47:58.243034</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2516,16 +1986,16 @@
         <v>5</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2534,51 +2004,51 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="b">
         <v>1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[157, 54, 162, 60, 94]</t>
+          <t>[157, 54, 108, 162, 60, 87, 96]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1]</t>
+          <t>[0, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.3550049834199527, 2.1108781737409203, 2.3781486454870766, 2.627912796286365, 2.796743980918212]</t>
+          <t>[1.3550049834199527, 2.1108781737409203, 2.9421848739981007, 2.3781486454870766, 2.627912796286365, 2.9225667947525125, 3.353070551112966]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 129, 109]</t>
+          <t>[60, 94, 87, 109, 156, 129, 118]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.627912796286365, 2.796743980918212, 2.9225667947525125, 3.4966983271872256, 3.6776542059156947]</t>
+          <t>[2.627912796286365, 2.796743980918212, 2.9225667947525125, 3.6776542059156947, 3.7257145542751764, 3.4966983271872256, 5.970870397142998]</t>
         </is>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.627912796286365</v>
+        <v>0.6767684419322998</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2587,38 +2057,8 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>3.957918596707774</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.0004397687329675305</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>5434.023586152954</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>43.35657220313824</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>43.70168719971399</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>43.97468316442323</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>43.68188305511201</v>
+          <t>2025-10-12T23:47:58.243034</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2634,16 +2074,16 @@
         <v>5</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2652,51 +2092,51 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>0.6</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="b">
         <v>1</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 66, 30]</t>
+          <t>[109, 60, 94, 81, 19, 156, 62]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.4294063775265933, 2.9101546021393747]</t>
+          <t>[1.02730719349262, 2.3008901008490206, 2.0229240047329005, 2.9225667947525125, 3.8935267938311524, 3.228103787224398, 4.2501120677078585]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 81, 156]</t>
+          <t>[109, 94, 60, 81, 156, 129, 118]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.9225667947525125, 3.228103787224398]</t>
+          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.9225667947525125, 3.228103787224398, 3.639316011085586, 5.861988897205965]</t>
         </is>
       </c>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.429406377526593</v>
+        <v>0.7462650191667379</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2705,38 +2145,8 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>3.975405375158108</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.0004417117083509009</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>4167.691719955074</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>7.385822988449762</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>7.696030642826706</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>7.862729967146152</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>7.662755380698483</v>
+          <t>2025-10-12T23:47:58.243034</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2752,16 +2162,16 @@
         <v>5</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2770,51 +2180,51 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[66, 141, 30, 121, 74]</t>
+          <t>[66, 87, 156, 60, 109, 157, 162]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.270390163502212, 1.5950983102481044, 1.6472968703090891, 1.792446514911611, 1.9150334880323294]</t>
+          <t>[1.270390163502212, 2.0229240047329005, 2.248409462917353, 2.2133899299550968, 2.7271522404792217, 2.1912232238840046, 2.4633435106922987]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[87, 60, 156, 109, 81]</t>
+          <t>[87, 60, 156, 109, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.0229240047329005, 2.2133899299550968, 2.248409462917353, 2.7271522404792217, 2.796743980918212]</t>
+          <t>[2.0229240047329005, 2.2133899299550968, 2.248409462917353, 2.7271522404792217, 2.796743980918212, 3.5325657093384386, 5.384162362926166]</t>
         </is>
       </c>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>1.792446514911611</v>
+        <v>0.6364560441901586</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2823,38 +2233,8 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>3.980301861375766</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.0004422557623750851</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>4382.730936384864</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>19.31126669417066</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>19.80797339889477</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>20.12688341929935</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>19.75436532156022</v>
+          <t>2025-10-12T23:47:58.243034</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2873,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2888,51 +2268,51 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
       </c>
       <c r="O21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[25, 122, 0, 44, 22]</t>
+          <t>[25, 0, 122, 59, 114, 62, 38]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 8.894895806438829, 9.207417917519324, 9.52364484751921, 9.6986341135755]</t>
+          <t>[8.691211386839777, 9.207417917519324, 8.894895806438829, 13.830842069171732, 10.461822702464078, 11.372812382036772, 9.74061119270624]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[25, 156, 94, 118, 87]</t>
+          <t>[25, 156, 94, 118, 109, 60, 87]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 9.828562976692579, 9.933644296013902, 10.808507914758495, 10.901504884982684]</t>
+          <t>[8.691211386839777, 9.828562976692579, 9.933644296013902, 10.808507914758495, 11.140759777554265, 11.009099614484562, 10.901504884982684]</t>
         </is>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>9.523644847519209</v>
+        <v>1.566837084109768</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2941,38 +2321,8 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>20.45142647508055</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.002272380719453395</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>5881.316132629116</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>163.3298298182173</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>163.3626853574482</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>163.3972999865053</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>163.359683210907</v>
+          <t>2025-10-12T23:47:58.243034</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2991,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -3006,14 +2356,14 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.2</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -3023,34 +2373,34 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 66, 156]</t>
+          <t>[87, 60, 19, 156, 94, 62, 81]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 2.9120497986013363, 3.3227176388132555]</t>
+          <t>[1.02730719349262, 2.4434334544048664, 3.7905899556411646, 3.3227176388132555, 2.7271522404792217, 4.4170776760298525, 3.6776542059156947]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 156, 81]</t>
+          <t>[87, 60, 94, 156, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 3.3227176388132555, 3.6776542059156947]</t>
+          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 3.3227176388132555, 3.6776542059156947, 3.930763646094779, 6.237906359894233]</t>
         </is>
       </c>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>2.912049798601336</v>
+        <v>0.7966973128747419</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -3059,38 +2409,8 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>3.494157783236418</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.0003882397536929354</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>4778.133281142792</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10.74812957624505</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>11.20435482077179</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>11.40753556059897</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11.16649379586079</v>
+          <t>2025-10-12T23:47:58.244032</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -3109,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -3124,51 +2444,51 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
       </c>
       <c r="O23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[151, 4, 52, 64, 129]</t>
+          <t>[62, 129, 163, 4, 151, 89, 59]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[3.133360360859858, 3.5137164996797625, 3.5403012188562766, 3.56040608053446, 3.6129325646687236]</t>
+          <t>[3.9940960660638245, 3.6129325646687236, 3.9857840791532855, 3.5137164996797625, 3.133360360859858, 3.772018568783384, 8.738918927498052]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[129, 94, 87, 81, 156]</t>
+          <t>[129, 94, 87, 81, 156, 60, 109]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[3.6129325646687236, 5.384162362926166, 5.861988897205965, 5.970870397142998, 6.016938439507509]</t>
+          <t>[3.6129325646687236, 5.384162362926166, 5.861988897205965, 5.970870397142998, 6.016938439507509, 6.031808407587342, 6.237906359894233]</t>
         </is>
       </c>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>3.56040608053446</v>
+        <v>1.047852073130081</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3177,38 +2497,8 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>5.072363895377887</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.0005635959883753208</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>3698.443818585818</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>96.49871852367976</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>96.59751300713542</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>96.61024274924029</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>96.56174596756946</v>
+          <t>2025-10-12T23:47:58.244032</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -3224,16 +2514,16 @@
         <v>5</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -3242,51 +2532,51 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>0.2</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[11, 89, 140, 27, 60]</t>
+          <t>[62, 60, 118, 54, 89, 81, 109]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 1, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[2.8039437428015193, 2.8238881125594335, 2.942523047510092, 2.955587890356077, 3.038968467681727]</t>
+          <t>[3.3579545061816214, 3.038968467681727, 3.6129325646687236, 3.092282199641918, 2.8238881125594335, 3.4966983271872256, 3.930763646094779]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[60, 81, 94, 118, 87]</t>
+          <t>[60, 81, 118, 87, 156, 94, 109]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.038968467681727, 3.4966983271872256, 3.5325657093384386, 3.6129325646687236, 3.639316011085586]</t>
+          <t>[3.038968467681727, 3.4966983271872256, 3.6129325646687236, 3.639316011085586, 3.6992423534262557, 3.5325657093384386, 3.930763646094779]</t>
         </is>
       </c>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>2.955587890356077</v>
+        <v>1.016021158466228</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -3295,38 +2585,8 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.647031757162534</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.0009607813063513926</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>6623.207426359206</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>29.71714177871031</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>29.81291555330271</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>29.90944214078546</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>29.80593376477544</v>
+          <t>2025-10-12T23:47:58.244032</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3345,13 +2605,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>96.57414058616595</v>
+        <v>0.9811868497552635</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -3360,14 +2620,14 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.6</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>0.4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N25" t="b">
         <v>1</v>
@@ -3377,34 +2637,34 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[60, 94, 66, 141, 162]</t>
+          <t>[60, 94, 0, 109, 162, 87, 98]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 2.547409594603133, 2.830388258774359, 2.847716027962298]</t>
+          <t>[1.7238609439707153, 2.248409462917353, 3.682756134418453, 3.3227176388132555, 2.847716027962298, 3.228103787224398, 3.1367684717948636]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 109, 129]</t>
+          <t>[60, 94, 109, 87, 81, 129, 118]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 3.228103787224398, 3.3227176388132555, 3.6992423534262557]</t>
+          <t>[1.7238609439707153, 2.248409462917353, 3.3227176388132555, 3.228103787224398, 3.7257145542751764, 3.6992423534262557, 6.016938439507509]</t>
         </is>
       </c>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.830388258774359</v>
+        <v>0.7547417788340495</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -3413,38 +2673,8 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.408397</t>
-        </is>
-      </c>
-      <c r="AA25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>3.957918596707774</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.0004397687329675305</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>5434.023586154003</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>29.54430831773086</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>29.63447061762663</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>30.01491753134233</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>29.69771937473958</v>
+          <t>2025-10-12T23:47:58.246034</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3454,22 +2684,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -3478,51 +2708,51 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
       </c>
       <c r="O26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[67, 34, 96, 116, 148]</t>
+          <t>[156, 109, 60, 104, 87, 23, 19]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[5.746132405736057, 6.031202211871348, 6.0596907586248685, 6.167706209654057, 6.331486006867314]</t>
+          <t>[3.682756134418453, 5.021605002625455, 4.70630304597658, 9.207417917519324, 5.405719067891872, 8.388981090374504, 7.5877058337289265]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[96, 51, 170, 155, 149]</t>
+          <t>[8, 122, 38, 114, 98, 112, 14]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[6.0596907586248685, 6.549265907635428, 6.7956705096502255, 7.006064056420584, 7.243994433944117]</t>
+          <t>[6.08800436829768, 7.964256258235821, 8.471146633002151, 7.782585844233039, 5.95449152616891, 9.602741008279496, 6.843429901519849]</t>
         </is>
       </c>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>6.167706209654057</v>
+        <v>1.26019499057475</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -3531,38 +2761,8 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.421556</t>
-        </is>
-      </c>
-      <c r="AA26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>2.530375341964847</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.0002811528157738719</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>6578.009004186445</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>88.27667516617392</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>88.63956673419561</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>89.58092937340018</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>88.71566959200845</v>
+          <t>2025-10-12T23:47:58.291297</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3572,22 +2772,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -3596,14 +2796,14 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -3613,34 +2813,34 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[170, 162, 149, 155, 157]</t>
+          <t>[46, 53, 3, 32, 130, 155, 142]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.3449232188752993, 1.5442383862034759, 1.7210647017116611, 2.197105082746076, 2.225910075721745]</t>
+          <t>[0.8132081400250286, 1.5868689295900902, 1.5875982496431946, 1.4858066535973735, 1.6002348222769218, 1.922422725330582, 1.6309597213366673]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[170, 162, 149, 155, 96]</t>
+          <t>[38, 98, 0, 112, 122, 14, 114]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[1.3449232188752993, 1.5442383862034759, 1.7210647017116611, 2.197105082746076, 2.9435461907548444]</t>
+          <t>[3.809058612177697, 3.489683763572442, 6.08800436829768, 5.247392155625091, 5.183228044239134, 4.850350457556759, 7.007670571360432]</t>
         </is>
       </c>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.197105082746076</v>
+        <v>0.63783965576966</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -3649,38 +2849,8 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.421556</t>
-        </is>
-      </c>
-      <c r="AA27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>2.999274853770919</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.0003332527615301021</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>5532.269568882582</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>12.52204163691948</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12.66947096103889</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13.17399675993247</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>12.73947821315956</v>
+          <t>2025-10-12T23:47:58.291297</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3690,22 +2860,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -3714,51 +2884,51 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[54, 155, 157, 51, 162]</t>
+          <t>[92, 166, 28, 134, 34, 88, 116]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[1.8295848262910746, 2.687012281169635, 2.753046955747242, 2.9435461907548444, 3.2700747301584507]</t>
+          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[155, 51, 162, 149, 170]</t>
+          <t>[92, 166, 28, 134, 34, 88, 116]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[2.687012281169635, 2.9435461907548444, 3.2700747301584507, 3.27413412231961, 3.333520821921467]</t>
+          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
         </is>
       </c>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.943546190754844</v>
+        <v>0.8430646833380084</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -3767,38 +2937,8 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.422556</t>
-        </is>
-      </c>
-      <c r="AA28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>1.611129156226009</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.0001790143506917788</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>6427.52494548795</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>34.82278564149517</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>35.17695674192167</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>35.41024699516862</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>35.13062829033578</v>
+          <t>2025-10-12T23:47:58.291297</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3808,22 +2948,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -3832,51 +2972,51 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[170, 155, 48, 121, 7]</t>
+          <t>[105, 146, 165, 125, 127, 148, 98]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 0.9508623498903781, 1.344289895892408, 1.472417280340593, 1.5171429300612809]</t>
+          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[170, 155, 51, 162, 96]</t>
+          <t>[105, 146, 165, 125, 127, 148, 98]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 0.9508623498903781, 1.7210647017116611, 2.2374820460564573, 3.27413412231961]</t>
+          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
         </is>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>1.472417280340593</v>
+        <v>0.7683325693976075</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3885,38 +3025,8 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.422556</t>
-        </is>
-      </c>
-      <c r="AA29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>3.029267990767385</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.0003365853323074873</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>5123.859099173827</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>8.681236052215757</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9.067578038140129</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>9.1983873340751</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.988727505707452</v>
+          <t>2025-10-12T23:47:58.291297</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3926,22 +3036,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3950,51 +3060,51 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[149, 58, 30, 170, 48]</t>
+          <t>[116, 67, 34, 166, 88, 12, 92]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.9508623498903781, 1.350972587814987, 1.3559413002318346, 1.3904879512591608, 1.394996451302257]</t>
+          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[149, 170, 51, 162, 96]</t>
+          <t>[116, 67, 34, 166, 88, 12, 92]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.9508623498903781, 1.3904879512591608, 2.197105082746076, 2.6232432008865922, 2.687012281169635]</t>
+          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
         </is>
       </c>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>1.390487951259161</v>
+        <v>0.7731549977439749</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -4003,38 +3113,8 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.422556</t>
-        </is>
-      </c>
-      <c r="AA30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>2.943323988845383</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.0003270359987605981</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>5727.262529305449</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>8.619333264700359</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>8.858528092582448</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>9.260803780476961</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>8.912657688484028</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -4044,22 +3124,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -4068,51 +3148,51 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="b">
         <v>0</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[51, 157, 149, 170, 28]</t>
+          <t>[67, 116, 28, 88, 12, 166, 92]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[1.5442383862034759, 2.1026197259635127, 2.2374820460564573, 2.249330520790928, 2.2810373555610575]</t>
+          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[51, 149, 170, 155, 96]</t>
+          <t>[67, 116, 28, 88, 12, 166, 92]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[1.5442383862034759, 2.2374820460564573, 2.249330520790928, 2.6232432008865922, 3.2700747301584507]</t>
+          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
         </is>
       </c>
       <c r="U31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.249330520790928</v>
+        <v>0.8410883382641869</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -4121,38 +3201,8 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.422556</t>
-        </is>
-      </c>
-      <c r="AA31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>2.530375341964847</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.0002811528157738719</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>6578.009004186164</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>51.42209029147172</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>51.55720629318317</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>51.8694661868811</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>51.60695881105888</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -4162,22 +3212,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>51.46714209665732</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -4186,51 +3236,51 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>0.4</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>0.6</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="b">
         <v>1</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[149, 51, 155, 48, 142]</t>
+          <t>[112, 72, 51, 122, 56, 157, 81]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 1.3449232188752993, 1.3904879512591608, 1.6086519216167632, 1.6791925599954158]</t>
+          <t>[4.05470661044856, 2.8743801847924346, 3.5498127594816147, 4.931710867209231, 3.9400554781817645, 3.491143442024662, 4.050657684538021]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[149, 51, 155, 162, 96]</t>
+          <t>[8, 112, 122, 98, 0, 134, 14]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[0.6744949770748654, 1.3449232188752993, 1.3904879512591608, 2.249330520790928, 3.333520821921467]</t>
+          <t>[3.809058612177697, 4.05470661044856, 4.931710867209231, 4.900343505852515, 8.471146633002151, 5.014385606825274, 5.74133915986708]</t>
         </is>
       </c>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.608651921616763</v>
+        <v>1.038671637882793</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -4239,38 +3289,8 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.422556</t>
-        </is>
-      </c>
-      <c r="AA32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>3.013185940970742</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.000334798437885638</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>4998.762812142815</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11.85436244995317</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>12.11323197400166</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>12.21379587151188</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>12.05412468815237</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -4280,7 +3300,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C33" t="n">
         <v>7</v>
@@ -4289,13 +3309,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -4304,14 +3324,14 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="b">
         <v>0</v>
@@ -4321,34 +3341,34 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[156, 60, 82, 66, 152]</t>
+          <t>[116, 34, 28, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[3.682756134418453, 4.70630304597658, 4.783637926459945, 4.80497771074045, 4.842347682308343]</t>
+          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[98, 8, 12, 92, 34]</t>
+          <t>[116, 34, 28, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[5.95449152616891, 6.08800436829768, 6.298216901063049, 6.413730728557752, 6.417726160743521]</t>
+          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
         </is>
       </c>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>4.80497771074045</v>
+        <v>0.9720414964375175</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -4357,38 +3377,8 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>5.619365638622249</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.0006243739598469165</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>7675.055355953153</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>219.128656528511</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>219.2012141666833</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>219.2604123004614</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>219.2008365591462</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -4398,7 +3388,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="C34" t="n">
         <v>7</v>
@@ -4407,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -4422,51 +3412,51 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="b">
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[46, 150, 32, 120, 53]</t>
+          <t>[116, 28, 67, 92, 34, 12, 166]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.8132081400250286, 1.4415421245913314, 1.4858066535973735, 1.5090954936329044, 1.5868689295900902]</t>
+          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[98, 38, 28, 116, 14]</t>
+          <t>[116, 28, 67, 92, 34, 12, 166]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[3.489683763572442, 3.809058612177697, 4.527222335908589, 4.752742239180374, 4.850350457556759]</t>
+          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
         </is>
       </c>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>1.509095493632904</v>
+        <v>0.8274962369884675</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -4475,38 +3465,8 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB34" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.820637759911813</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.0007578486399902014</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>6745.029408638954</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>70.53012348438939</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>70.59289416482827</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>70.74448015286099</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>70.6061314716072</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -4516,7 +3476,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="C35" t="n">
         <v>7</v>
@@ -4525,13 +3485,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -4543,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
@@ -4553,38 +3513,38 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[92, 166, 88, 28, 34]</t>
+          <t>[12, 166, 88, 28, 34, 134, 116]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.1889773334939922, 1.2714170344520064, 1.32061194669919]</t>
+          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[92, 166, 88, 28, 34]</t>
+          <t>[12, 166, 88, 28, 34, 134, 116]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.1889773334939922, 1.2714170344520064, 1.32061194669919]</t>
+          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
         </is>
       </c>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.271417034452006</v>
+        <v>0.9185520070408044</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -4593,38 +3553,8 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB35" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0.8003533990356674</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>8.892815544840748e-05</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>4311.233055883248</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>34.82160191982753</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>34.87694369280977</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>34.8932668310787</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>34.85962437257316</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -4634,7 +3564,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="C36" t="n">
         <v>7</v>
@@ -4643,13 +3573,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -4658,51 +3588,51 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N36" t="b">
         <v>0</v>
       </c>
       <c r="O36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[105, 146, 125, 165, 127]</t>
+          <t>[146, 28, 105, 116, 170, 148, 51]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5090353997195989, 1.5114443168656573, 1.5793456969697512]</t>
+          <t>[2.2655902011080813, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1498598411769523, 2.1959409717746525, 2.6336450736208743]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[105, 146, 125, 165, 127]</t>
+          <t>[146, 8, 28, 105, 116, 148, 165]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5090353997195989, 1.5114443168656573, 1.5793456969697512]</t>
+          <t>[2.2655902011080813, 3.489683763572442, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1959409717746525, 2.4429403769269977]</t>
         </is>
       </c>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.511444316865657</v>
+        <v>1.081904878046806</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -4711,38 +3641,8 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0.4827591280394067</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>5.363990311548964e-05</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>5462.774652648141</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>143.8205292700947</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>143.8645802894706</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>143.8970065922316</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>143.8591157443415</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -4752,7 +3652,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="C37" t="n">
         <v>7</v>
@@ -4761,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -4779,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -4789,38 +3689,38 @@
         <v>0</v>
       </c>
       <c r="O37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[116, 166, 34, 88, 67]</t>
+          <t>[146, 125, 14, 127, 165, 148, 134]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0264295246425166, 1.0365164925602255, 1.0427116849041143, 1.0627897260130672]</t>
+          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[116, 166, 34, 88, 67]</t>
+          <t>[146, 125, 14, 127, 165, 148, 134]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0264295246425166, 1.0365164925602255, 1.0427116849041143, 1.0627897260130672]</t>
+          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
         </is>
       </c>
       <c r="U37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>1.042711684904114</v>
+        <v>0.5828992333634653</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -4829,38 +3729,8 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA37" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB37" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0.5759345986827109</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>6.399273318696788e-05</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>4727.822080611132</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>6.669423471435304</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>7.748438367574146</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>8.434381332306941</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>7.624128227244813</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -4870,22 +3740,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="C38" t="n">
         <v>7</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -4894,51 +3764,51 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166]</t>
+          <t>[122, 38, 25, 114, 59, 56, 165]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.215666646680279]</t>
+          <t>[4.337198191692961, 4.05470661044856, 6.487488755518677, 5.440198495444032, 8.820757032771018, 5.109254203889771, 4.391370694579391]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[67, 116, 28, 88, 166]</t>
+          <t>[38, 122, 8, 114, 165, 14, 127]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.215666646680279]</t>
+          <t>[4.05470661044856, 4.337198191692961, 5.247392155625091, 5.440198495444032, 4.391370694579391, 4.788558760473677, 4.678288879544833]</t>
         </is>
       </c>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.168804059201727</v>
+        <v>1.370537640562379</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -4947,38 +3817,8 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA38" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB38" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0.562452700770671</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>6.249474453007456e-05</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>4632.45354631294</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12.50377674987464</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>13.1601767700159</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>14.17750266403931</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>13.16072881726153</v>
+          <t>2025-10-12T23:47:58.292296</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -4988,7 +3828,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="C39" t="n">
         <v>7</v>
@@ -4997,13 +3837,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -5012,14 +3852,14 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="N39" t="b">
         <v>0</v>
@@ -5029,34 +3869,34 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[72, 161, 137, 142, 27]</t>
+          <t>[122, 25, 14, 105, 112, 127, 165]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[2.8743801847924346, 3.2135648621806987, 3.228033933840191, 3.4249093040861704, 3.4506572289798974]</t>
+          <t>[4.087903692704581, 5.758371013344655, 3.762171276613728, 3.718255724775455, 5.440198495444032, 3.8400893679327046, 3.842576423535419]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[8, 112, 98, 122, 28]</t>
+          <t>[122, 14, 112, 105, 127, 165, 125]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[3.809058612177697, 4.05470661044856, 4.900343505852515, 4.931710867209231, 4.936753476539264]</t>
+          <t>[4.087903692704581, 3.762171276613728, 5.440198495444032, 3.718255724775455, 3.8400893679327046, 3.842576423535419, 3.7610177832708014]</t>
         </is>
       </c>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>3.42490930408617</v>
+        <v>1.276238021640514</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -5065,38 +3905,8 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA39" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB39" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>10.76043997660839</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.001195604441845377</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>4570.056141730649</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>70.59762795577923</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>70.62694443724249</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>70.7112166170878</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>70.63406872213555</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -5106,7 +3916,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C40" t="n">
         <v>7</v>
@@ -5115,13 +3925,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -5133,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
@@ -5143,38 +3953,38 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[116, 34, 28, 88, 166]</t>
+          <t>[28, 67, 34, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213]</t>
+          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[116, 34, 28, 88, 166]</t>
+          <t>[28, 67, 34, 88, 166, 12, 148]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213]</t>
+          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.151559168612315</v>
+        <v>0.8465675149615683</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -5183,38 +3993,8 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA40" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB40" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0.5437697740396316</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6.041886378218128e-05</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>3647.49794879816</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>4.52274868703161</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>5.618536551105106</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>6.102000095551063</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>5.450104678382795</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -5224,7 +4004,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="C41" t="n">
         <v>7</v>
@@ -5233,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -5248,14 +4028,14 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -5265,34 +4045,34 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[116, 28, 67, 34, 12]</t>
+          <t>[25, 112, 114, 38, 104, 98, 14]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[0, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.1688040592017273, 1.1889773334939922]</t>
+          <t>[3.548220758848561, 4.337198191692961, 4.087903692704581, 4.931710867209231, 8.894895806438829, 4.539073032076113, 4.718257125202034]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[116, 28, 67, 34, 12]</t>
+          <t>[112, 114, 38, 8, 98, 14, 127]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.1688040592017273, 1.1889773334939922]</t>
+          <t>[4.337198191692961, 4.087903692704581, 4.931710867209231, 5.183228044239134, 4.539073032076113, 4.718257125202034, 4.522115957094709]</t>
         </is>
       </c>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.168804059201727</v>
+        <v>1.354287229487737</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -5301,38 +4081,8 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.444312</t>
-        </is>
-      </c>
-      <c r="AA41" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB41" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0.605078262319291</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.723091803547677e-05</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>6190.586655416119</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>51.04450113611478</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>51.63187044308727</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>52.50813432351549</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>51.72058223289836</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -5342,7 +4092,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C42" t="n">
         <v>7</v>
@@ -5351,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -5369,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -5379,38 +4129,38 @@
         <v>0</v>
       </c>
       <c r="O42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 28, 34]</t>
+          <t>[165, 148, 127, 105, 146, 14, 116]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402]</t>
+          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[12, 166, 88, 28, 34]</t>
+          <t>[165, 148, 127, 105, 146, 14, 116]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402]</t>
+          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
         </is>
       </c>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>1.582592557243932</v>
+        <v>0.5847362087459802</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -5419,38 +4169,8 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.445457</t>
-        </is>
-      </c>
-      <c r="AA42" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB42" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.6503215203244221</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7.225794670271357e-05</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>4106.006898787877</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>64.99687064559862</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>65.08416280492887</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>65.11241862077712</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>65.07038654911533</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -5460,7 +4180,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="C43" t="n">
         <v>7</v>
@@ -5469,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -5484,51 +4204,51 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" t="b">
         <v>0</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[28, 116, 170, 148, 149]</t>
+          <t>[125, 165, 105, 148, 146, 14, 134]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.009402944755667, 2.069902236630937, 2.1498598411769523, 2.1959409717746525, 2.2327111284844623]</t>
+          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[28, 116, 148, 146, 166]</t>
+          <t>[125, 165, 105, 148, 146, 14, 134]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[2.009402944755667, 2.069902236630937, 2.1959409717746525, 2.2655902011080813, 2.275157458684912]</t>
+          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>2.195940971774653</v>
+        <v>0.6389452288132973</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -5537,38 +4257,8 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.445457</t>
-        </is>
-      </c>
-      <c r="AA43" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB43" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>1.524934174310906</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.0001694371304789896</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>7231.605483840171</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>140.8188271696362</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>140.8357852092942</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>140.8484398295292</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>140.8340793180169</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -5578,7 +4268,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="C44" t="n">
         <v>7</v>
@@ -5587,13 +4277,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -5605,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -5619,34 +4309,34 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[146, 125, 127, 165, 14]</t>
+          <t>[166, 12, 92, 28, 105, 116, 127]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.15532112645773, 1.1788478002932243, 1.1962071176531426]</t>
+          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[146, 125, 127, 165, 14]</t>
+          <t>[166, 12, 92, 28, 105, 116, 127]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.15532112645773, 1.1788478002932243, 1.1962071176531426]</t>
+          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
         </is>
       </c>
       <c r="U44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.178847800293224</v>
+        <v>1.032702924033947</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -5655,38 +4345,8 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.445457</t>
-        </is>
-      </c>
-      <c r="AA44" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0.7348118084624422</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>8.164575649582691e-05</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>4939.659051648756</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>43.70727923081737</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>43.74637902537555</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>43.81049742572807</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>43.74845844729693</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -5696,22 +4356,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="C45" t="n">
         <v>7</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -5720,51 +4380,51 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[38, 122, 161, 165, 21]</t>
+          <t>[105, 125, 165, 148, 127, 14, 98]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 4.337198191692961, 4.3814270704880585, 4.391370694579391, 4.5682543561525275]</t>
+          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[38, 122, 165, 125, 127]</t>
+          <t>[105, 125, 165, 148, 127, 14, 98]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 4.337198191692961, 4.391370694579391, 4.639421127596824, 4.678288879544833]</t>
+          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
         </is>
       </c>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>4.391370694579391</v>
+        <v>0.6032079406717126</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -5773,38 +4433,8 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.445457</t>
-        </is>
-      </c>
-      <c r="AA45" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.990998016839201</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.0009989997796488001</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>6136.154403355093</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>76.44264518146909</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>76.69782474896249</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>76.94963734523729</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>76.69878308409923</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -5814,7 +4444,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C46" t="n">
         <v>7</v>
@@ -5823,13 +4453,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -5841,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -5855,34 +4485,34 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[105, 125, 14, 127, 165]</t>
+          <t>[165, 125, 127, 146, 105, 14, 116]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[3.718255724775455, 3.7610177832708014, 3.762171276613728, 3.8400893679327046, 3.842576423535419]</t>
+          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[105, 125, 14, 127, 165]</t>
+          <t>[165, 125, 127, 146, 105, 14, 116]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[3.718255724775455, 3.7610177832708014, 3.762171276613728, 3.8400893679327046, 3.842576423535419]</t>
+          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
         </is>
       </c>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>3.840089367932705</v>
+        <v>0.7290029031762082</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5891,38 +4521,8 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.446468</t>
-        </is>
-      </c>
-      <c r="AA46" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0.7016771100193161</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.796412333547957e-05</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>5352.655825569469</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>412.3212138348649</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>412.3380691456306</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>412.3502526435019</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>412.3362296716082</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -5932,7 +4532,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="C47" t="n">
         <v>7</v>
@@ -5941,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -5959,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -5969,38 +4569,38 @@
         <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[28, 67, 34, 88, 166]</t>
+          <t>[125, 148, 127, 146, 105, 14, 116]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546]</t>
+          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.0850346828531623]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[28, 67, 34, 88, 166]</t>
+          <t>[125, 148, 127, 146, 105, 14, 98]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546]</t>
+          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.4429403769269977]</t>
         </is>
       </c>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.9638482758194614</v>
+        <v>0.6113785349456256</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -6009,38 +4609,8 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.446468</t>
-        </is>
-      </c>
-      <c r="AA47" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB47" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0.6329747763075226</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>7.033053070083586e-05</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>4330.650487421944</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>3.04407020302737</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>3.795677832486635</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>4.162809895293442</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3.63499600507204</v>
+          <t>2025-10-12T23:47:58.293297</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -6050,22 +4620,22 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>122</v>
+        <v>166</v>
       </c>
       <c r="C48" t="n">
         <v>7</v>
       </c>
       <c r="D48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>100.6389596955588</v>
+        <v>1.114628059786687</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -6074,51 +4644,51 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="N48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[25, 114, 112, 95, 125]</t>
+          <t>[12, 134, 28, 92, 116, 34, 67]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 4.087903692704581, 4.337198191692961, 4.459563889993939, 4.477699112513131]</t>
+          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[114, 112, 125, 127, 98]</t>
+          <t>[12, 134, 28, 92, 116, 34, 67]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[4.087903692704581, 4.337198191692961, 4.477699112513131, 4.522115957094709, 4.539073032076113]</t>
+          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
         </is>
       </c>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>4.459563889993939</v>
+        <v>0.8136358272310029</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -6127,864 +4697,8 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-10T09:55:42.446468</t>
-        </is>
-      </c>
-      <c r="AA48" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB48" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.571078349963415</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.0009523420388848239</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>4462.076357235868</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>77.07480008726579</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>77.10198807055153</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>77.17048754572281</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>77.11389643591284</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>125</v>
-      </c>
-      <c r="C49" t="n">
-        <v>7</v>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" t="b">
-        <v>1</v>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146]</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542]</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146]</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542]</t>
-        </is>
-      </c>
-      <c r="U49" t="n">
-        <v>4</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0.9788096610379503</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.446468</t>
-        </is>
-      </c>
-      <c r="AA49" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB49" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>0.5293631975837925</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>5.881813306486583e-05</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>5236.475085438217</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>42.72989430654424</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>42.73791245179928</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>42.78784574100764</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>42.75120581563077</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>127</v>
-      </c>
-      <c r="C50" t="n">
-        <v>7</v>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="n">
-        <v>5</v>
-      </c>
-      <c r="F50" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>[125, 165, 148, 105, 146]</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.0304942909300825, 1.15532112645773, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>[125, 165, 148, 105, 146]</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.0304942909300825, 1.15532112645773, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="U50" t="n">
-        <v>4</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.15532112645773</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0</v>
-      </c>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.447463</t>
-        </is>
-      </c>
-      <c r="AA50" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB50" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0.4089602693770643</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>4.544002993078491e-05</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>6919.960146299097</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>122.2258346941381</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>122.23635886882</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>122.2537870517207</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>122.23615599077</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>134</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7</v>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>5</v>
-      </c>
-      <c r="F51" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G51" t="n">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>[166, 12, 28, 92, 116]</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.7913607550454447, 1.972033621587465, 2.007189037033557]</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>[166, 12, 28, 92, 116]</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.7913607550454447, 1.972033621587465, 2.007189037033557]</t>
-        </is>
-      </c>
-      <c r="U51" t="n">
-        <v>4</v>
-      </c>
-      <c r="V51" t="n">
-        <v>1.972033621587465</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0</v>
-      </c>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.447463</t>
-        </is>
-      </c>
-      <c r="AA51" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB51" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0.7282518438144375</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>8.09168715349375e-05</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>6949.007980825628</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>100.6292024294072</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>100.6759395613318</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>100.7445484281291</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>100.6831126105625</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>146</v>
-      </c>
-      <c r="C52" t="n">
-        <v>7</v>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>5</v>
-      </c>
-      <c r="F52" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G52" t="n">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="b">
-        <v>0</v>
-      </c>
-      <c r="O52" t="b">
-        <v>1</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>[105, 125, 148, 165, 127]</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.0372642603783018, 1.1374318846972276, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>[105, 125, 148, 165, 127]</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.0372642603783018, 1.1374318846972276, 1.2386401795972093]</t>
-        </is>
-      </c>
-      <c r="U52" t="n">
-        <v>4</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.137431884697228</v>
-      </c>
-      <c r="W52" t="n">
-        <v>0</v>
-      </c>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.447463</t>
-        </is>
-      </c>
-      <c r="AA52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB52" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>0.4291143906620075</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>4.767937674022306e-05</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>4825.507229208012</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>59.62711138457158</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>59.69340921161348</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>59.70800127128433</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>59.67429799628134</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>148</v>
-      </c>
-      <c r="C53" t="n">
-        <v>7</v>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>5</v>
-      </c>
-      <c r="F53" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="b">
-        <v>0</v>
-      </c>
-      <c r="O53" t="b">
-        <v>1</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185]</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185]</t>
-        </is>
-      </c>
-      <c r="U53" t="n">
-        <v>4</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.037264260378302</v>
-      </c>
-      <c r="W53" t="n">
-        <v>0</v>
-      </c>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.447463</t>
-        </is>
-      </c>
-      <c r="AA53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB53" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>0.4827591280394067</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>5.363990311548964e-05</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>5462.77465264926</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>50.1823558431384</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>50.19100985439966</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>50.26560371643002</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>50.20972309636967</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>165</v>
-      </c>
-      <c r="C54" t="n">
-        <v>7</v>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>5</v>
-      </c>
-      <c r="F54" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="b">
-        <v>0</v>
-      </c>
-      <c r="O54" t="b">
-        <v>1</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243]</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105]</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243]</t>
-        </is>
-      </c>
-      <c r="U54" t="n">
-        <v>4</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.137431884697228</v>
-      </c>
-      <c r="W54" t="n">
-        <v>0</v>
-      </c>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.448463</t>
-        </is>
-      </c>
-      <c r="AA54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>0.4859165300944616</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>5.399072556605129e-05</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>5090.021104196723</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>50.73661810617396</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>50.77543316500213</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>50.7930914120779</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>50.7644948166037</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>166</v>
-      </c>
-      <c r="C55" t="n">
-        <v>7</v>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5</v>
-      </c>
-      <c r="F55" t="n">
-        <v>100.6389596955588</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="b">
-        <v>0</v>
-      </c>
-      <c r="O55" t="b">
-        <v>1</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>[12, 28, 116, 34, 134]</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>[0.7095152903098895, 1.0264295246425166, 1.1512872277874546, 1.215666646680279, 1.2254670342423102]</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>[12, 28, 116, 34, 134]</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>[0.7095152903098895, 1.0264295246425166, 1.1512872277874546, 1.215666646680279, 1.2254670342423102]</t>
-        </is>
-      </c>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
-      <c r="V55" t="n">
-        <v>1.215666646680279</v>
-      </c>
-      <c r="W55" t="n">
-        <v>0</v>
-      </c>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>2025-10-10T09:55:42.448463</t>
-        </is>
-      </c>
-      <c r="AA55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>1.107259472814862</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.0001230288303127625</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>6376.15703641147</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>32.52405246389969</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>32.54204829726027</v>
-      </c>
-      <c r="AI55" t="n">
-        <v>32.57996421843873</v>
-      </c>
-      <c r="AJ55" t="n">
-        <v>32.54381742573202</v>
+          <t>2025-10-12T23:47:58.294296</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.200855</t>
+          <t>2025-10-16T12:16:30.360149</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.201195</t>
+          <t>2025-10-16T12:16:30.360149</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.201731</t>
+          <t>2025-10-16T12:16:30.360149</t>
         </is>
       </c>
     </row>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -863,7 +863,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.201731</t>
+          <t>2025-10-16T12:16:30.360149</t>
         </is>
       </c>
     </row>
@@ -930,16 +930,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.202569</t>
+          <t>2025-10-16T12:16:30.360149</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.203101</t>
+          <t>2025-10-16T12:16:30.361148</t>
         </is>
       </c>
     </row>
@@ -1112,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.203101</t>
+          <t>2025-10-16T12:16:30.361148</t>
         </is>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.203101</t>
+          <t>2025-10-16T12:16:30.361148</t>
         </is>
       </c>
     </row>
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.204097</t>
+          <t>2025-10-16T12:16:30.361148</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.204097</t>
+          <t>2025-10-16T12:16:30.361148</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.204097</t>
+          <t>2025-10-16T12:16:30.362147</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.205100</t>
+          <t>2025-10-16T12:16:30.362147</t>
         </is>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1655,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.205100</t>
+          <t>2025-10-16T12:16:30.362147</t>
         </is>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.098621319767587</v>
+        <v>1.034080344372177</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1743,7 +1743,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.205100</t>
+          <t>2025-10-16T12:16:30.363148</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.242032</t>
+          <t>2025-10-16T12:16:30.401283</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.243034</t>
+          <t>2025-10-16T12:16:30.402274</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.243034</t>
+          <t>2025-10-16T12:16:30.402274</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.243034</t>
+          <t>2025-10-16T12:16:30.402274</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.243034</t>
+          <t>2025-10-16T12:16:30.402274</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.243034</t>
+          <t>2025-10-16T12:16:30.402274</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.244032</t>
+          <t>2025-10-16T12:16:30.403277</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.244032</t>
+          <t>2025-10-16T12:16:30.403277</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.244032</t>
+          <t>2025-10-16T12:16:30.403277</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.246034</t>
+          <t>2025-10-16T12:16:30.403277</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.291297</t>
+          <t>2025-10-16T12:16:30.447270</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.291297</t>
+          <t>2025-10-16T12:16:30.447270</t>
         </is>
       </c>
     </row>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.291297</t>
+          <t>2025-10-16T12:16:30.447270</t>
         </is>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.291297</t>
+          <t>2025-10-16T12:16:30.448270</t>
         </is>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.450283</t>
         </is>
       </c>
     </row>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.450283</t>
         </is>
       </c>
     </row>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3239,7 +3239,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3488,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3664,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3767,7 +3767,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.292296</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.451275</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -4031,7 +4031,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4104,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4192,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4456,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.293297</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>
@@ -4632,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.114628059786687</v>
+        <v>1.05143806220516</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:47:58.294296</t>
+          <t>2025-10-16T12:16:30.452275</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.571254182457916, 0.8399570029762644, 0.7188030116408483, 0.915922586578981, 0.9643759308650648, 0.8161088220553884]</t>
+          <t>[0.3686896860599518, 0.5712586641311646, 0.8399618864059448, 0.7188007235527039, 0.9159262180328369, 0.964373767375946, 0.8161059021949768]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -633,14 +633,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.9643759308650648, 1.1263236539931059, 1.2241735099679416, 1.2196421966004263, 1.470400260947273, 1.5570746533140791]</t>
+          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2241731882095337, 1.2196450233459473, 1.4703971147537231, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7022135007131695</v>
+        <v>0.7022123336791992</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.360149</t>
+          <t>2025-10-17T02:10:14.486135</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108793636307856, 0.3007785898777099, 0.5837685871344127, 0.6349888467834518, 0.6392179051246156, 0.5765435063524058, 0.6429941276074913]</t>
+          <t>[0.29108816385269165, 0.3007749617099762, 0.5837634801864624, 0.6349945664405823, 0.639224112033844, 0.5765426754951477, 0.6429972052574158]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -721,14 +721,14 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.6392179051246156, 0.7289855999382798, 0.8478721364650169, 0.9712824467055972, 1.0848981146158845, 1.3480260842400091, 1.2196421966004263]</t>
+          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.3480218648910522, 1.2196450233459473]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7351268328894733</v>
+        <v>0.7351284027099609</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.360149</t>
+          <t>2025-10-17T02:10:14.486503</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -799,7 +799,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.5354786819005746, 1.5763796645421633, 1.518245731033573, 1.601565229324348, 1.8141893925589672, 2.4762693355922436, 1.6455757268203273]</t>
+          <t>[1.5354762077331543, 1.5763767957687378, 1.5182515382766724, 1.6015644073486328, 1.814195990562439, 2.4762635231018066, 1.645581841468811]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -809,14 +809,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 2.9099357041697727, 2.5544267277225856, 3.135508093288406, 2.661673534050169, 2.6628466326195666, 2.9838959810785206]</t>
+          <t>[2.4762635231018066, 2.9099297523498535, 2.5544352531433105, 3.1355085372924805, 2.66167950630188, 2.662851095199585, 2.9838945865631104]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8059630735203358</v>
+        <v>0.8059625029563904</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.360149</t>
+          <t>2025-10-17T02:10:14.486503</t>
         </is>
       </c>
     </row>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -863,7 +863,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -887,7 +887,7 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.46185233475496995, 0.46297917576952363, 0.7553792977804442, 0.8820956202336345, 0.8820956202336345, 1.2559472641199887, 1.800462053004792]</t>
+          <t>[0.4618493616580963, 0.46296268701553345, 0.7553806304931641, 0.8820913434028625, 0.8820913434028625, 1.2559460401535034, 1.8004459142684937]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
@@ -897,14 +897,14 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.353507723745344, 3.135508093288406, 3.852336164887893, 2.6655485707291344, 2.417296510745149, 2.481662343266953]</t>
+          <t>[0.7553806304931641, 2.353519916534424, 3.1355085372924805, 3.852335214614868, 2.665560245513916, 2.4172964096069336, 2.481671094894409]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5129622213260127</v>
+        <v>0.5129613876342773</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.360149</t>
+          <t>2025-10-17T02:10:14.487014</t>
         </is>
       </c>
     </row>
@@ -930,16 +930,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.9198494393336901, 0.9164440119967676, 1.015355534006097, 0.9643759308650648, 1.1352381971484793, 1.309078032215393, 1.2096121380822629]</t>
+          <t>[0.9198511242866516, 0.9164473414421082, 1.0153549909591675, 0.964373767375946, 1.1352434158325195, 1.3090776205062866, 1.209598422050476]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
@@ -985,14 +985,14 @@
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.9643759308650648, 1.015355534006097, 1.309078032215393, 1.6240327394665033, 1.7274423917541522, 1.9255385383437427, 1.6671735468792106]</t>
+          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.7274311780929565, 1.9255344867706299, 1.6671695709228516]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8182832624091771</v>
+        <v>0.8182864189147949</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.360149</t>
+          <t>2025-10-17T02:10:14.487014</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.0445740521454645, 0.7342474404872175, 1.350972587814987, 0.9219694314401171, 0.9574600932486723, 1.0273458703387217, 0.8839927453713303]</t>
+          <t>[1.0445706844329834, 0.7342439293861389, 1.3509747982025146, 0.9219695329666138, 0.9574594497680664, 1.027353048324585, 0.8839975595474243]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1073,14 +1073,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.015057799175586, 1.0873292441229583, 1.1586569849203083, 1.3480260842400091, 1.470400260947273, 1.4868313662359702, 2.2044641100359974]</t>
+          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 2.204462766647339]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8288065347223699</v>
+        <v>0.8288118839263916</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.361148</t>
+          <t>2025-10-17T02:10:14.487014</t>
         </is>
       </c>
     </row>
@@ -1112,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.290743137515647, 0.285043916571243, 0.30986970738125885, 0.4762486808158445, 0.6092232120953457, 0.6937357956386917, 0.6997585091441121]</t>
+          <t>[0.2907591462135315, 0.28504446148872375, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.693737268447876, 0.6997390985488892]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1161,14 +1161,14 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6743329932424019, 0.8478721364650169, 1.015057799175586, 1.2241735099679416, 1.3019104729087863, 1.6027152759797092]</t>
+          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6508315759700464</v>
+        <v>0.6508306264877319</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.361148</t>
+          <t>2025-10-17T02:10:14.487014</t>
         </is>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 0.5519547370633832, 0.7350731770769507, 0.7528594013729141, 1.015355534006097, 0.8294772913953069, 1.0044478913104573]</t>
+          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 1.0153549909591675, 0.8294775485992432, 1.004456877708435]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
@@ -1249,14 +1249,14 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.36870282705068963, 1.015355534006097, 1.0848981146158845, 1.1840853595030576, 1.3019104729087863, 1.4868313662359702, 1.475155267747228]</t>
+          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.486830234527588, 1.4751609563827515]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7623549783731214</v>
+        <v>0.7623581886291504</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.361148</t>
+          <t>2025-10-17T02:10:14.487014</t>
         </is>
       </c>
     </row>
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.3613020375403079, 0.3682554256573937, 0.38688552012503286, 0.5760992767784409, 0.6288485199178419, 0.567023673930235]</t>
+          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5760982632637024, 0.6288474202156067, 0.5670149326324463]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1337,14 +1337,14 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.285043916571243, 0.6349515184349481, 0.7289855999382798, 1.0873292441229583, 1.1263236539931059, 1.1840853595030576, 1.475092862204293]</t>
+          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5833289261393296</v>
+        <v>0.5833283066749573</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.361148</t>
+          <t>2025-10-17T02:10:14.488027</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.39793813337752815, 0.3796159808557999, 0.547131824675983, 0.5109725664891919, 0.466880727756286, 0.5868905832144952, 0.6392179051246156]</t>
+          <t>[0.39794325828552246, 0.3796297311782837, 0.5471352934837341, 0.5109684467315674, 0.4668952524662018, 0.5869107246398926, 0.639224112033844]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
@@ -1425,14 +1425,14 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.6349515184349481, 0.6743329932424019, 0.6392179051246156, 1.1125232778579464, 1.1586569849203083, 1.475155267747228, 1.5570746533140791]</t>
+          <t>[0.6349484324455261, 0.6743265986442566, 0.639224112033844, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6007126447186697</v>
+        <v>0.600724458694458</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.361148</t>
+          <t>2025-10-17T02:10:14.488027</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[1.022522729127132, 0.7418466361563256, 1.091730518109694, 0.8169284393537438, 0.9712824467055972, 0.8513187214136887, 0.9974814909302543]</t>
+          <t>[1.022521734237671, 0.7418535351753235, 1.0917242765426636, 0.8169267773628235, 0.9712804555892944, 0.8513126373291016, 0.9974803328514099]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1513,14 +1513,14 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.9712824467055972, 1.1125232778579464, 1.475092862204293, 1.6027152759797092, 2.0702255154153795, 1.9131038424109268, 2.3420474164918956]</t>
+          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 2.070220708847046, 1.913097858428955, 2.342046022415161]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8640735583738509</v>
+        <v>0.8640673160552979</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.362147</t>
+          <t>2025-10-17T02:10:14.488027</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.9609936844987668, 2.4762693355922436, 2.5488143551159124, 3.9857840791532855, 2.814430996857044, 2.781341715903314, 3.241391020906572]</t>
+          <t>[1.961000919342041, 2.4762635231018066, 2.548816442489624, 3.9857804775238037, 2.8144288063049316, 2.781341075897217, 3.2413923740386963]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1601,14 +1601,14 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.4762693355922436, 3.852336164887893, 3.940240431990059, 3.849267075737102, 3.735630166896788, 4.553111058292238, 4.460374817552124]</t>
+          <t>[2.4762635231018066, 3.852335214614868, 3.940241575241089, 3.849271774291992, 3.7356345653533936, 4.5531134605407715, 4.46036958694458]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.012813522909019</v>
+        <v>1.012810945510864</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.362147</t>
+          <t>2025-10-17T02:10:14.488027</t>
         </is>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1655,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.44201139323274474, 0.44201139323274474, 0.7553792977804442, 0.817289129845502, 1.0266676237864174, 1.20002024796093, 1.2940247242682115]</t>
+          <t>[0.4420248568058014, 0.4420248568058014, 0.7553806304931641, 0.8172926902770996, 1.0266729593276978, 1.2000261545181274, 1.2940304279327393]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1689,14 +1689,14 @@
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.7553792977804442, 2.2044641100359974, 2.9099357041697727, 3.940240431990059, 2.5074243448209392, 2.7999065735366058, 2.5194056150095907]</t>
+          <t>[0.7553806304931641, 2.204462766647339, 2.9099297523498535, 3.940241575241089, 2.5074117183685303, 2.7999069690704346, 2.5194039344787598]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5337961185523034</v>
+        <v>0.5337993502616882</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.362147</t>
+          <t>2025-10-17T02:10:14.488027</t>
         </is>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.034080344372177</v>
+        <v>1.098623054182442</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1743,7 +1743,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8769890823808907, 0.9809583086635929, 0.9985459325462515, 1.3458586455349735, 1.1135126667475501, 1.1277871921736737, 1.309078032215393]</t>
+          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.3458682298660278, 1.1135129928588867, 1.1277869939804077, 1.3090776205062866]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.309078032215393, 2.5544267277225856, 2.015712067298128, 2.3420474164918956, 1.9811919545498997, 1.9998280260557344, 2.1122709618390516]</t>
+          <t>[1.3090776205062866, 2.5544352531433105, 2.0157172679901123, 2.342046022415161, 1.981188416481018, 1.9998292922973633, 2.1122682094573975]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.784294935453643</v>
+        <v>0.7842975854873657</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.363148</t>
+          <t>2025-10-17T02:10:14.489026</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G16" t="n">
         <v>0.7142857142857143</v>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 8.691211386839777, 5.758371013344655, 6.487488755518677, 9.90292972678089, 6.694373693143342, 5.858822564490876]</t>
+          <t>[3.548219919204712, 8.691213607788086, 5.758365631103516, 6.487487316131592, 9.90291976928711, 6.694366455078125, 5.858821868896484]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 7.731836095243678, 8.609739822750038, 8.581772163170536, 8.94639168349315, 9.074630557371929, 9.319384200728924]</t>
+          <t>[8.691213607788086, 7.731835842132568, 8.609739303588867, 8.581768989562988, 8.94638442993164, 9.074629783630371, 9.31938362121582]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.13595142890848</v>
+        <v>1.135951399803162</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.401283</t>
+          <t>2025-10-17T02:10:14.551912</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G17" t="n">
         <v>0.7142857142857143</v>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.4434334544048664, 2.3008901008490206, 2.627912796286365, 2.2133899299550968, 2.550539891650585, 3.038968467681727]</t>
+          <t>[1.7238720655441284, 2.4434309005737305, 2.300889730453491, 2.6279022693634033, 2.213388204574585, 2.5505406856536865, 3.038969039916992]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -1953,14 +1953,14 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.3008901008490206, 2.2133899299550968, 2.4434334544048664, 2.627912796286365, 3.038968467681727, 6.031808407587342]</t>
+          <t>[1.7238720655441284, 2.300889730453491, 2.213388204574585, 2.4434309005737305, 2.6279022693634033, 3.038969039916992, 6.031808853149414]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6524128611037427</v>
+        <v>0.6524121761322021</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.402274</t>
+          <t>2025-10-17T02:10:14.551912</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G18" t="n">
         <v>0.7142857142857143</v>
@@ -2031,7 +2031,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.3550049834199527, 2.1108781737409203, 2.9421848739981007, 2.3781486454870766, 2.627912796286365, 2.9225667947525125, 3.353070551112966]</t>
+          <t>[1.3550022840499878, 2.110875129699707, 2.9421937465667725, 2.3781371116638184, 2.6279022693634033, 2.9225618839263916, 3.3530654907226562]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2041,14 +2041,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.627912796286365, 2.796743980918212, 2.9225667947525125, 3.6776542059156947, 3.7257145542751764, 3.4966983271872256, 5.970870397142998]</t>
+          <t>[2.6279022693634033, 2.7967379093170166, 2.9225618839263916, 3.6776535511016846, 3.725713014602661, 3.496691942214966, 5.9708662033081055]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6767684419322998</v>
+        <v>0.6767674088478088</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.402274</t>
+          <t>2025-10-17T02:10:14.551912</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G19" t="n">
         <v>0.7142857142857143</v>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.3008901008490206, 2.0229240047329005, 2.9225667947525125, 3.8935267938311524, 3.228103787224398, 4.2501120677078585]</t>
+          <t>[1.0273101329803467, 2.300889730453491, 2.022925615310669, 2.9225618839263916, 3.8935210704803467, 3.228111982345581, 4.250108242034912]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -2129,14 +2129,14 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.0229240047329005, 2.3008901008490206, 2.9225667947525125, 3.228103787224398, 3.639316011085586, 5.861988897205965]</t>
+          <t>[1.0273101329803467, 2.022925615310669, 2.300889730453491, 2.9225618839263916, 3.228111982345581, 3.639315605163574, 5.8619890213012695]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7462650191667379</v>
+        <v>0.7462657690048218</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.402274</t>
+          <t>2025-10-17T02:10:14.552913</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G20" t="n">
         <v>0.7142857142857143</v>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.270390163502212, 2.0229240047329005, 2.248409462917353, 2.2133899299550968, 2.7271522404792217, 2.1912232238840046, 2.4633435106922987]</t>
+          <t>[1.2703914642333984, 2.022925615310669, 2.2484099864959717, 2.213388204574585, 2.7271506786346436, 2.191220998764038, 2.463343381881714]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -2217,14 +2217,14 @@
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.0229240047329005, 2.2133899299550968, 2.248409462917353, 2.7271522404792217, 2.796743980918212, 3.5325657093384386, 5.384162362926166]</t>
+          <t>[2.022925615310669, 2.213388204574585, 2.2484099864959717, 2.7271506786346436, 2.7967379093170166, 3.532566547393799, 5.384163856506348]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6364560441901586</v>
+        <v>0.6364556550979614</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.402274</t>
+          <t>2025-10-17T02:10:14.552913</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G21" t="n">
         <v>0.7142857142857143</v>
@@ -2271,7 +2271,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 9.207417917519324, 8.894895806438829, 13.830842069171732, 10.461822702464078, 11.372812382036772, 9.74061119270624]</t>
+          <t>[8.691213607788086, 9.207416534423828, 8.894898414611816, 13.830842971801758, 10.461819648742676, 11.372812271118164, 9.74061107635498]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -2305,14 +2305,14 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[8.691211386839777, 9.828562976692579, 9.933644296013902, 10.808507914758495, 11.140759777554265, 11.009099614484562, 10.901504884982684]</t>
+          <t>[8.691213607788086, 9.828558921813965, 9.933645248413086, 10.808511734008789, 11.14076042175293, 11.009100914001465, 10.901507377624512]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.566837084109768</v>
+        <v>1.566836953163147</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.402274</t>
+          <t>2025-10-17T02:10:14.552913</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G22" t="n">
         <v>0.7142857142857143</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 3.7905899556411646, 3.3227176388132555, 2.7271522404792217, 4.4170776760298525, 3.6776542059156947]</t>
+          <t>[1.0273101329803467, 2.4434309005737305, 3.7905890941619873, 3.322721242904663, 2.7271506786346436, 4.417076587677002, 3.6776535511016846]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2393,14 +2393,14 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.02730719349262, 2.4434334544048664, 2.7271522404792217, 3.3227176388132555, 3.6776542059156947, 3.930763646094779, 6.237906359894233]</t>
+          <t>[1.0273101329803467, 2.4434309005737305, 2.7271506786346436, 3.322721242904663, 3.6776535511016846, 3.9307637214660645, 6.2379069328308105]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7966973128747419</v>
+        <v>0.7966963052749634</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.403277</t>
+          <t>2025-10-17T02:10:14.552913</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G23" t="n">
         <v>0.7142857142857143</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[3.9940960660638245, 3.6129325646687236, 3.9857840791532855, 3.5137164996797625, 3.133360360859858, 3.772018568783384, 8.738918927498052]</t>
+          <t>[3.9940896034240723, 3.612931966781616, 3.9857804775238037, 3.513723611831665, 3.133359909057617, 3.7720181941986084, 8.738912582397461]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2481,14 +2481,14 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[3.6129325646687236, 5.384162362926166, 5.861988897205965, 5.970870397142998, 6.016938439507509, 6.031808407587342, 6.237906359894233]</t>
+          <t>[3.612931966781616, 5.384163856506348, 5.8619890213012695, 5.9708662033081055, 6.016942501068115, 6.031808853149414, 6.2379069328308105]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.047852073130081</v>
+        <v>1.047851800918579</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.403277</t>
+          <t>2025-10-17T02:10:14.552913</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G24" t="n">
         <v>0.7142857142857143</v>
@@ -2559,7 +2559,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[3.3579545061816214, 3.038968467681727, 3.6129325646687236, 3.092282199641918, 2.8238881125594335, 3.4966983271872256, 3.930763646094779]</t>
+          <t>[3.3579466342926025, 3.038969039916992, 3.612931966781616, 3.0922813415527344, 2.8238894939422607, 3.496691942214966, 3.9307637214660645]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2569,14 +2569,14 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.038968467681727, 3.4966983271872256, 3.6129325646687236, 3.639316011085586, 3.6992423534262557, 3.5325657093384386, 3.930763646094779]</t>
+          <t>[3.038969039916992, 3.496691942214966, 3.612931966781616, 3.639315605163574, 3.699251413345337, 3.532566547393799, 3.9307637214660645]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.016021158466228</v>
+        <v>1.016021013259888</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.403277</t>
+          <t>2025-10-17T02:10:14.553911</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9811868497552635</v>
+        <v>0.9811869674064627</v>
       </c>
       <c r="G25" t="n">
         <v>0.7142857142857143</v>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 3.682756134418453, 3.3227176388132555, 2.847716027962298, 3.228103787224398, 3.1367684717948636]</t>
+          <t>[1.7238720655441284, 2.2484099864959717, 3.682757616043091, 3.322721242904663, 2.8477210998535156, 3.228111982345581, 3.136768102645874]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2657,14 +2657,14 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.7238609439707153, 2.248409462917353, 3.3227176388132555, 3.228103787224398, 3.7257145542751764, 3.6992423534262557, 6.016938439507509]</t>
+          <t>[1.7238720655441284, 2.2484099864959717, 3.322721242904663, 3.228111982345581, 3.725713014602661, 3.699251413345337, 6.016942501068115]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7547417788340495</v>
+        <v>0.7547435164451599</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.403277</t>
+          <t>2025-10-17T02:10:14.553911</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2735,7 +2735,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[3.682756134418453, 5.021605002625455, 4.70630304597658, 9.207417917519324, 5.405719067891872, 8.388981090374504, 7.5877058337289265]</t>
+          <t>[3.682757616043091, 5.021600246429443, 4.706303119659424, 9.207416534423828, 5.405718803405762, 8.388983726501465, 7.5876994132995605]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -2745,14 +2745,14 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[6.08800436829768, 7.964256258235821, 8.471146633002151, 7.782585844233039, 5.95449152616891, 9.602741008279496, 6.843429901519849]</t>
+          <t>[6.087997913360596, 7.964256763458252, 8.471141815185547, 7.782583713531494, 5.954493045806885, 9.602742195129395, 6.843430519104004]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26019499057475</v>
+        <v>1.26019549369812</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.447270</t>
+          <t>2025-10-17T02:10:14.622459</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.8132081400250286, 1.5868689295900902, 1.5875982496431946, 1.4858066535973735, 1.6002348222769218, 1.922422725330582, 1.6309597213366673]</t>
+          <t>[0.8132038116455078, 1.586868405342102, 1.5875941514968872, 1.4857956171035767, 1.6002230644226074, 1.9224257469177246, 1.6309336423873901]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2833,14 +2833,14 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[3.809058612177697, 3.489683763572442, 6.08800436829768, 5.247392155625091, 5.183228044239134, 4.850350457556759, 7.007670571360432]</t>
+          <t>[3.809053421020508, 3.489682912826538, 6.087997913360596, 5.247391700744629, 5.183218955993652, 4.85034704208374, 7.00767183303833]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.63783965576966</v>
+        <v>0.6378386616706848</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.447270</t>
+          <t>2025-10-17T02:10:14.622459</t>
         </is>
       </c>
     </row>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2921,14 +2921,14 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 0.7095152903098895, 1.2714170344520064, 1.5296665982953364, 1.32061194669919, 1.1889773334939922, 1.4472985267768135]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8430646833380084</v>
+        <v>0.8430664539337158</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.447270</t>
+          <t>2025-10-17T02:10:14.622459</t>
         </is>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3009,14 +3009,14 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[1.1962071176531426, 1.4052520928097405, 1.5114443168656573, 1.5090353997195989, 1.5793456969697512, 1.7265879571947085, 2.767818741427769]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7683325693976075</v>
+        <v>0.7683334350585938</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.448270</t>
+          <t>2025-10-17T02:10:14.622459</t>
         </is>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
+          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3097,14 +3097,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 1.0627897260130672, 1.0365164925602255, 1.0264295246425166, 1.0427116849041143, 1.2714170344520064, 1.5825925572439319]</t>
+          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7731549977439749</v>
+        <v>0.7731496095657349</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.450283</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3185,14 +3185,14 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[0.5955520820772918, 0.7853120750288224, 1.0365164925602255, 1.1688040592017273, 1.32061194669919, 1.215666646680279, 1.6141646739074402]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8410883382641869</v>
+        <v>0.8410900831222534</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.450283</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3239,7 +3239,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 2.8743801847924346, 3.5498127594816147, 4.931710867209231, 3.9400554781817645, 3.491143442024662, 4.050657684538021]</t>
+          <t>[4.054708003997803, 2.8743762969970703, 3.549809217453003, 4.931705474853516, 3.940061569213867, 3.491143226623535, 4.050656318664551]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -3273,14 +3273,14 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[3.809058612177697, 4.05470661044856, 4.931710867209231, 4.900343505852515, 8.471146633002151, 5.014385606825274, 5.74133915986708]</t>
+          <t>[3.809053421020508, 4.054708003997803, 4.931705474853516, 4.90034294128418, 8.471141815185547, 5.014385223388672, 5.741334438323975]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.038671637882793</v>
+        <v>1.0386723279953</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3361,14 +3361,14 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[0.5768095704933661, 0.5955520820772918, 1.0627897260130672, 1.1515591686123146, 1.4561485338614213, 1.6920400399297932, 1.8567672404495317]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>0.9720414964375175</v>
+        <v>0.9720406532287598</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3449,14 +3449,14 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[0.9638482758194614, 1.0427116849041143, 1.1515591686123146, 1.2844867596432914, 1.1688040592017273, 1.1889773334939922, 1.2921742063603394]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8274962369884675</v>
+        <v>0.8274984955787659</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3488,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3537,14 +3537,14 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[0.6938538718042702, 1.232152903578428, 1.2844867596432914, 1.5825925572439319, 1.6141646739074402, 1.972033621587465, 1.7865657354714215]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>0.9185520070408044</v>
+        <v>0.9185517430305481</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3615,7 +3615,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[2.2655902011080813, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1498598411769523, 2.1959409717746525, 2.6336450736208743]</t>
+          <t>[2.265591859817505, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.633648633956909]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3625,14 +3625,14 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[2.2655902011080813, 3.489683763572442, 2.009402944755667, 2.3744285735325943, 2.069902236630937, 2.1959409717746525, 2.4429403769269977]</t>
+          <t>[2.265591859817505, 3.489682912826538, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.195941925048828, 2.442943572998047]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>1.081904878046806</v>
+        <v>1.081908226013184</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3664,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -3713,14 +3713,14 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9788096610379503, 1.1962071176531426, 1.15532112645773, 1.1788478002932243, 1.196821520219185, 2.3023860235789515]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5828992333634653</v>
+        <v>0.5828993320465088</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.623458</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3767,7 +3767,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[4.337198191692961, 4.05470661044856, 6.487488755518677, 5.440198495444032, 8.820757032771018, 5.109254203889771, 4.391370694579391]</t>
+          <t>[4.337198257446289, 4.054708003997803, 6.487487316131592, 5.44020938873291, 8.82075309753418, 5.109254360198975, 4.3913702964782715]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[4.05470661044856, 4.337198191692961, 5.247392155625091, 5.440198495444032, 4.391370694579391, 4.788558760473677, 4.678288879544833]</t>
+          <t>[4.054708003997803, 4.337198257446289, 5.247391700744629, 5.44020938873291, 4.3913702964782715, 4.788558006286621, 4.678295612335205]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1.370537640562379</v>
+        <v>1.370536804199219</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[4.087903692704581, 5.758371013344655, 3.762171276613728, 3.718255724775455, 5.440198495444032, 3.8400893679327046, 3.842576423535419]</t>
+          <t>[4.087904453277588, 5.758365631103516, 3.762176036834717, 3.718254804611206, 5.44020938873291, 3.840088129043579, 3.842573881149292]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3889,14 +3889,14 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[4.087903692704581, 3.762171276613728, 5.440198495444032, 3.718255724775455, 3.8400893679327046, 3.842576423535419, 3.7610177832708014]</t>
+          <t>[4.087904453277588, 3.762176036834717, 5.44020938873291, 3.718254804611206, 3.840088129043579, 3.842573881149292, 3.7610156536102295]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>1.276238021640514</v>
+        <v>1.276239633560181</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.451275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -3977,14 +3977,14 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[0.5247670678089587, 0.5768095704933661, 0.7853120750288224, 0.9638482758194614, 1.1512872277874546, 1.4472985267768135, 1.6623535242660015]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0.8465675149615683</v>
+        <v>0.8465672731399536</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -4031,7 +4031,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[3.548220758848561, 4.337198191692961, 4.087903692704581, 4.931710867209231, 8.894895806438829, 4.539073032076113, 4.718257125202034]</t>
+          <t>[3.548219919204712, 4.337198257446289, 4.087904453277588, 4.931705474853516, 8.894898414611816, 4.53907585144043, 4.718254566192627]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4065,14 +4065,14 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[4.337198191692961, 4.087903692704581, 4.931710867209231, 5.183228044239134, 4.539073032076113, 4.718257125202034, 4.522115957094709]</t>
+          <t>[4.337198257446289, 4.087904453277588, 4.931705474853516, 5.183218955993652, 4.53907585144043, 4.718254566192627, 4.522115707397461]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>1.354287229487737</v>
+        <v>1.354288339614868</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4104,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4153,14 +4153,14 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.5437260897988515, 0.8630496944521113, 0.9788096610379503, 0.9866147171205542, 1.5090353997195989, 1.987839538370493]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5847362087459802</v>
+        <v>0.5847383141517639</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4192,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4241,14 +4241,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[0.8630496944521113, 0.9548645626090493, 1.15532112645773, 1.0304942909300825, 1.2386401795972093, 1.5793456969697512, 2.4712924331226453]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6389452288132973</v>
+        <v>0.6389483213424683</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -4329,14 +4329,14 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[1.2254670342423102, 1.5296665982953364, 1.972033621587465, 1.7913607550454447, 2.3023860235789515, 2.007189037033557, 2.4712924331226453]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>1.032702924033947</v>
+        <v>1.032703876495361</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
@@ -4417,14 +4417,14 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[0.554208474292604, 0.9866147171205542, 1.1374318846972276, 1.0372642603783018, 1.2386401795972093, 1.4052520928097405, 2.2655902011080813]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6032079406717126</v>
+        <v>0.6032094955444336</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4456,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4505,14 +4505,14 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[0.4956847553434702, 0.5437260897988515, 1.0304942909300825, 1.0372642603783018, 1.196821520219185, 1.7265879571947085, 1.6623535242660015]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0.7290029031762082</v>
+        <v>0.7290010452270508</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.624457</t>
         </is>
       </c>
     </row>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.0850346828531623]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4593,14 +4593,14 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[0.4555300636353425, 0.4956847553434702, 0.9548645626090493, 1.1374318846972276, 1.1788478002932243, 1.5114443168656573, 2.4429403769269977]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.442943572998047]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6113785349456256</v>
+        <v>0.6113778352737427</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.625457</t>
         </is>
       </c>
     </row>
@@ -4632,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.05143806220516</v>
+        <v>1.114626219364676</v>
       </c>
       <c r="G48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
+          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -4681,14 +4681,14 @@
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[0.7095152903098895, 1.2254670342423102, 1.0264295246425166, 1.232152903578428, 1.1512872277874546, 1.215666646680279, 1.4561485338614213]</t>
+          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>0.8136358272310029</v>
+        <v>0.8136365413665771</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:30.452275</t>
+          <t>2025-10-17T02:10:14.625457</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.486135</t>
+          <t>2025-10-17T07:09:32.076206</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.486503</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.486503</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.487014</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.487014</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.487014</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.487014</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.487014</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.488027</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.488027</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.488027</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.488027</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.488027</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.489026</t>
+          <t>2025-10-17T07:09:32.079719</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.551912</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.551912</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.551912</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.552913</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.552913</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.552913</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.552913</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.552913</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.553911</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.553911</t>
+          <t>2025-10-17T07:09:32.142823</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.622459</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.622459</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.622459</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.622459</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.623458</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.624457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.625457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:14.625457</t>
+          <t>2025-10-17T07:09:32.209467</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -584,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -599,7 +599,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
@@ -609,7 +609,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.076206</t>
+          <t>2025-10-19T23:55:44.112278</t>
         </is>
       </c>
     </row>
@@ -672,10 +672,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -687,7 +687,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.113278</t>
         </is>
       </c>
     </row>
@@ -760,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -775,7 +775,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
@@ -825,7 +825,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.113278</t>
         </is>
       </c>
     </row>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -863,7 +863,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -913,7 +913,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.113278</t>
         </is>
       </c>
     </row>
@@ -930,16 +930,16 @@
         <v>3</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -951,7 +951,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
@@ -961,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1001,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.113278</t>
         </is>
       </c>
     </row>
@@ -1024,10 +1024,10 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1089,7 +1089,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.113278</t>
         </is>
       </c>
     </row>
@@ -1112,10 +1112,10 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1127,7 +1127,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.114277</t>
         </is>
       </c>
     </row>
@@ -1200,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1215,7 +1215,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.114277</t>
         </is>
       </c>
     </row>
@@ -1288,10 +1288,10 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1303,7 +1303,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1353,7 +1353,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.114277</t>
         </is>
       </c>
     </row>
@@ -1376,10 +1376,10 @@
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1391,7 +1391,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.114277</t>
         </is>
       </c>
     </row>
@@ -1464,10 +1464,10 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1479,7 +1479,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.115277</t>
         </is>
       </c>
     </row>
@@ -1552,10 +1552,10 @@
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1567,7 +1567,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.115277</t>
         </is>
       </c>
     </row>
@@ -1640,10 +1640,10 @@
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1655,7 +1655,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
@@ -1705,7 +1705,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.115277</t>
         </is>
       </c>
     </row>
@@ -1728,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>1.098623054182442</v>
+        <v>1.034080270809076</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1743,7 +1743,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
@@ -1793,7 +1793,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.079719</t>
+          <t>2025-10-19T23:55:44.115277</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1831,7 +1831,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
@@ -1881,7 +1881,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.140273</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -1919,7 +1919,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
@@ -1969,7 +1969,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.140273</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2007,7 +2007,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
@@ -2057,7 +2057,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.140273</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2095,7 +2095,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2145,7 +2145,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.141271</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2183,7 +2183,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
@@ -2233,7 +2233,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.141271</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2271,7 +2271,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
@@ -2321,7 +2321,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.141271</t>
         </is>
       </c>
     </row>
@@ -2347,7 +2347,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -2359,7 +2359,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
@@ -2409,7 +2409,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.142271</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -2447,7 +2447,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
@@ -2497,7 +2497,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.142353</t>
         </is>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2535,7 +2535,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
@@ -2585,7 +2585,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.142885</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
         <v>0.9811869674064627</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -2623,7 +2623,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
@@ -2673,7 +2673,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.142823</t>
+          <t>2025-10-19T23:55:44.142885</t>
         </is>
       </c>
     </row>
@@ -2696,10 +2696,10 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2711,7 +2711,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
@@ -2761,7 +2761,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.174416</t>
         </is>
       </c>
     </row>
@@ -2784,10 +2784,10 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2799,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
@@ -2849,7 +2849,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.175415</t>
         </is>
       </c>
     </row>
@@ -2872,10 +2872,10 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.175415</t>
         </is>
       </c>
     </row>
@@ -2960,10 +2960,10 @@
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
@@ -2985,7 +2985,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.175415</t>
         </is>
       </c>
     </row>
@@ -3048,10 +3048,10 @@
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.175415</t>
         </is>
       </c>
     </row>
@@ -3136,10 +3136,10 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.175415</t>
         </is>
       </c>
     </row>
@@ -3224,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
@@ -3239,7 +3239,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
@@ -3289,7 +3289,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.176410</t>
         </is>
       </c>
     </row>
@@ -3312,10 +3312,10 @@
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.177413</t>
         </is>
       </c>
     </row>
@@ -3400,10 +3400,10 @@
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
@@ -3415,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3465,7 +3465,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.178412</t>
         </is>
       </c>
     </row>
@@ -3488,10 +3488,10 @@
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3553,7 +3553,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.178412</t>
         </is>
       </c>
     </row>
@@ -3576,10 +3576,10 @@
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
@@ -3591,7 +3591,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3641,7 +3641,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.178412</t>
         </is>
       </c>
     </row>
@@ -3664,10 +3664,10 @@
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.178412</t>
         </is>
       </c>
     </row>
@@ -3752,10 +3752,10 @@
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
@@ -3767,7 +3767,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
@@ -3817,7 +3817,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.179415</t>
         </is>
       </c>
     </row>
@@ -3840,10 +3840,10 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
@@ -3855,7 +3855,7 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
@@ -3905,7 +3905,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.179415</t>
         </is>
       </c>
     </row>
@@ -3928,10 +3928,10 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3993,7 +3993,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.179415</t>
         </is>
       </c>
     </row>
@@ -4016,10 +4016,10 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
@@ -4031,7 +4031,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
@@ -4081,7 +4081,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.179415</t>
         </is>
       </c>
     </row>
@@ -4104,10 +4104,10 @@
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.180419</t>
         </is>
       </c>
     </row>
@@ -4192,10 +4192,10 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.180419</t>
         </is>
       </c>
     </row>
@@ -4280,10 +4280,10 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
@@ -4345,7 +4345,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.180419</t>
         </is>
       </c>
     </row>
@@ -4368,10 +4368,10 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.180419</t>
         </is>
       </c>
     </row>
@@ -4456,10 +4456,10 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
@@ -4481,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.181413</t>
         </is>
       </c>
     </row>
@@ -4544,10 +4544,10 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G47" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
@@ -4569,7 +4569,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4609,7 +4609,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.181413</t>
         </is>
       </c>
     </row>
@@ -4632,10 +4632,10 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>1.114626219364676</v>
+        <v>1.051438290771685</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:32.209467</t>
+          <t>2025-10-19T23:55:44.181413</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -649,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.112278</t>
+          <t>2025-10-20T01:22:07.414504</t>
         </is>
       </c>
     </row>
@@ -737,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.113278</t>
+          <t>2025-10-20T01:22:07.415503</t>
         </is>
       </c>
     </row>
@@ -825,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.113278</t>
+          <t>2025-10-20T01:22:07.415503</t>
         </is>
       </c>
     </row>
@@ -913,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.113278</t>
+          <t>2025-10-20T01:22:07.415503</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.113278</t>
+          <t>2025-10-20T01:22:07.415503</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.113278</t>
+          <t>2025-10-20T01:22:07.415503</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.114277</t>
+          <t>2025-10-20T01:22:07.415503</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.114277</t>
+          <t>2025-10-20T01:22:07.416502</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.114277</t>
+          <t>2025-10-20T01:22:07.416502</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.114277</t>
+          <t>2025-10-20T01:22:07.416502</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.115277</t>
+          <t>2025-10-20T01:22:07.416502</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.115277</t>
+          <t>2025-10-20T01:22:07.416502</t>
         </is>
       </c>
     </row>
@@ -1705,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.115277</t>
+          <t>2025-10-20T01:22:07.417502</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.115277</t>
+          <t>2025-10-20T01:22:07.417502</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.140273</t>
+          <t>2025-10-20T01:22:07.443505</t>
         </is>
       </c>
     </row>
@@ -1969,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.140273</t>
+          <t>2025-10-20T01:22:07.443505</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.140273</t>
+          <t>2025-10-20T01:22:07.444505</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.141271</t>
+          <t>2025-10-20T01:22:07.444505</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.141271</t>
+          <t>2025-10-20T01:22:07.445527</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.141271</t>
+          <t>2025-10-20T01:22:07.445527</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.142271</t>
+          <t>2025-10-20T01:22:07.445527</t>
         </is>
       </c>
     </row>
@@ -2497,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.142353</t>
+          <t>2025-10-20T01:22:07.446506</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.142885</t>
+          <t>2025-10-20T01:22:07.446506</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.142885</t>
+          <t>2025-10-20T01:22:07.446506</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.174416</t>
+          <t>2025-10-20T01:22:07.476808</t>
         </is>
       </c>
     </row>
@@ -2849,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.175415</t>
+          <t>2025-10-20T01:22:07.477832</t>
         </is>
       </c>
     </row>
@@ -2937,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.175415</t>
+          <t>2025-10-20T01:22:07.477832</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.175415</t>
+          <t>2025-10-20T01:22:07.477832</t>
         </is>
       </c>
     </row>
@@ -3113,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.175415</t>
+          <t>2025-10-20T01:22:07.478808</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.175415</t>
+          <t>2025-10-20T01:22:07.478808</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.176410</t>
+          <t>2025-10-20T01:22:07.478808</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.177413</t>
+          <t>2025-10-20T01:22:07.478808</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.178412</t>
+          <t>2025-10-20T01:22:07.478808</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.178412</t>
+          <t>2025-10-20T01:22:07.480808</t>
         </is>
       </c>
     </row>
@@ -3641,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.178412</t>
+          <t>2025-10-20T01:22:07.480808</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.178412</t>
+          <t>2025-10-20T01:22:07.480808</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.179415</t>
+          <t>2025-10-20T01:22:07.481806</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.179415</t>
+          <t>2025-10-20T01:22:07.481806</t>
         </is>
       </c>
     </row>
@@ -3993,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.179415</t>
+          <t>2025-10-20T01:22:07.481806</t>
         </is>
       </c>
     </row>
@@ -4081,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.179415</t>
+          <t>2025-10-20T01:22:07.481806</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.180419</t>
+          <t>2025-10-20T01:22:07.482806</t>
         </is>
       </c>
     </row>
@@ -4257,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.180419</t>
+          <t>2025-10-20T01:22:07.482806</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.180419</t>
+          <t>2025-10-20T01:22:07.482806</t>
         </is>
       </c>
     </row>
@@ -4433,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.180419</t>
+          <t>2025-10-20T01:22:07.482806</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.181413</t>
+          <t>2025-10-20T01:22:07.483803</t>
         </is>
       </c>
     </row>
@@ -4609,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.181413</t>
+          <t>2025-10-20T01:22:07.483803</t>
         </is>
       </c>
     </row>
@@ -4697,11 +4707,16 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:55:44.181413</t>
+          <t>2025-10-20T01:22:07.483803</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z48">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.414504</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.415503</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.415503</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.415503</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.415503</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.415503</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.415503</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.416502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.416502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.416502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.416502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.416502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.417502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.417502</t>
+          <t>2025-10-23T11:29:47.671605</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.443505</t>
+          <t>2025-10-23T11:29:47.722783</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.443505</t>
+          <t>2025-10-23T11:29:47.722783</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.444505</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.444505</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.445527</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.445527</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.445527</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.446506</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.446506</t>
+          <t>2025-10-23T11:29:47.723783</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.446506</t>
+          <t>2025-10-23T11:29:47.724779</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.476808</t>
+          <t>2025-10-23T11:29:47.760284</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.477832</t>
+          <t>2025-10-23T11:29:47.760625</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.477832</t>
+          <t>2025-10-23T11:29:47.760677</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.477832</t>
+          <t>2025-10-23T11:29:47.760677</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.478808</t>
+          <t>2025-10-23T11:29:47.760677</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.478808</t>
+          <t>2025-10-23T11:29:47.761690</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.478808</t>
+          <t>2025-10-23T11:29:47.761690</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.478808</t>
+          <t>2025-10-23T11:29:47.761690</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.478808</t>
+          <t>2025-10-23T11:29:47.761690</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.480808</t>
+          <t>2025-10-23T11:29:47.761690</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.480808</t>
+          <t>2025-10-23T11:29:47.762690</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.480808</t>
+          <t>2025-10-23T11:29:47.762690</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.481806</t>
+          <t>2025-10-23T11:29:47.762690</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.481806</t>
+          <t>2025-10-23T11:29:47.762690</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.481806</t>
+          <t>2025-10-23T11:29:47.762690</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.481806</t>
+          <t>2025-10-23T11:29:47.762690</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.482806</t>
+          <t>2025-10-23T11:29:47.763692</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.482806</t>
+          <t>2025-10-23T11:29:47.763692</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.482806</t>
+          <t>2025-10-23T11:29:47.763692</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.482806</t>
+          <t>2025-10-23T11:29:47.764133</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.483803</t>
+          <t>2025-10-23T11:29:47.764133</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.483803</t>
+          <t>2025-10-23T11:29:47.764133</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:07.483803</t>
+          <t>2025-10-23T11:29:47.764133</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -659,7 +659,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1011,7 +1011,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1451,7 +1451,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1715,7 +1715,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.671605</t>
+          <t>2025-10-23T12:45:49.421503</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.722783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -1979,7 +1979,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.722783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2419,7 +2419,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2507,7 +2507,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.723783</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.724779</t>
+          <t>2025-10-23T12:45:49.452775</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.760284</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -2859,7 +2859,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.760625</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -2947,7 +2947,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.760677</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.760677</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3123,7 +3123,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.760677</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.761690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3299,7 +3299,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.761690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.761690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.761690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.761690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3651,7 +3651,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.762690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3739,7 +3739,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.762690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.762690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -3915,7 +3915,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.762690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.762690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.762690</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.763692</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.763692</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4355,7 +4355,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.763692</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.764133</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4531,7 +4531,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.764133</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4619,7 +4619,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.764133</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:29:47.764133</t>
+          <t>2025-10-23T12:45:49.480949</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_glass_D75_R75_Pproporcion.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -593,11 +593,9 @@
       <c r="E2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
@@ -606,14 +604,14 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N2" t="b">
         <v>0</v>
@@ -623,34 +621,34 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[121, 120, 137, 150, 142, 45, 6]</t>
+          <t>[92, 91, 116, 3, 20, 64, 90]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5712586641311646, 0.8399618864059448, 0.7188007235527039, 0.9159262180328369, 0.964373767375946, 0.8161059021949768]</t>
+          <t>[0.3686896860599518, 0.5712586641311646, 0.7188007235527039, 0.8161059021949768, 0.8208655714988708, 0.8525661826133728, 0.9072226285934448]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[121, 45, 139, 102, 9, 58, 143]</t>
+          <t>[92, 32, 106, 5, 80, 41, 109]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2241731882095337, 1.2196450233459473, 1.4703971147537231, 1.557084560394287]</t>
+          <t>[0.3686896860599518, 0.964373767375946, 1.126319169998169, 1.2196450233459473, 1.2241731882095337, 1.4703971147537231, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7022123336791992</v>
+        <v>0.8367158512056988</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -659,7 +657,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -670,7 +668,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -681,11 +679,9 @@
       <c r="E3" t="n">
         <v>7</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
@@ -694,14 +690,14 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N3" t="b">
         <v>0</v>
@@ -711,34 +707,34 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[76, 16, 37, 55, 143, 74, 124]</t>
+          <t>[56, 10, 54, 26, 86, 44, 39]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[0.29108816385269165, 0.3007749617099762, 0.5837634801864624, 0.6349945664405823, 0.639224112033844, 0.5765426754951477, 0.6429972052574158]</t>
+          <t>[0.29108816385269165, 0.3007749617099762, 0.5765426754951477, 0.5837634801864624, 0.60104900598526, 0.6279987692832947, 0.6349945664405823]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[143, 139, 102, 153, 121, 58, 7]</t>
+          <t>[109, 106, 80, 119, 92, 4, 41]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.3480218648910522, 1.2196450233459473]</t>
+          <t>[0.639224112033844, 0.7289791107177734, 0.8478673100471497, 0.9712804555892944, 1.0848945379257202, 1.2196450233459473, 1.3480218648910522]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>0.7351284027099609</v>
+        <v>0.6145239107281864</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -747,7 +743,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -758,7 +754,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -769,11 +765,9 @@
       <c r="E4" t="n">
         <v>7</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -782,14 +776,14 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -799,34 +793,34 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[10, 13, 159, 26, 4, 163, 115]</t>
+          <t>[57, 83, 4, 92, 18, 91, 25]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.5354762077331543, 1.5763767957687378, 1.5182515382766724, 1.6015644073486328, 1.814195990562439, 2.4762635231018066, 1.645581841468811]</t>
+          <t>[0.9164473414421082, 0.9198511242866516, 0.964373767375946, 1.0153549909591675, 1.1352434158325195, 1.147658109664917, 1.209598422050476]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[163, 168, 169, 21, 58, 45, 102]</t>
+          <t>[4, 92, 130, 106, 5, 80, 41]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 2.9099297523498535, 2.5544352531433105, 3.1355085372924805, 2.66167950630188, 2.662851095199585, 2.9838945865631104]</t>
+          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.6671695709228516, 1.7274311780929565, 1.9255344867706299]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8059625029563904</v>
+        <v>1.141450774788637</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -835,7 +829,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -846,7 +840,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -857,11 +851,9 @@
       <c r="E5" t="n">
         <v>7</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
@@ -873,7 +865,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K5" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
@@ -887,34 +879,34 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[161, 167, 168, 1, 123, 130, 72]</t>
+          <t>[52, 81, 59, 63, 69, 80, 93]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[0.4618493616580963, 0.46296268701553345, 0.7553806304931641, 0.8820913434028625, 0.8820913434028625, 1.2559460401535034, 1.8004459142684937]</t>
+          <t>[0.7342439293861389, 0.8839975595474243, 0.9219695329666138, 0.9574594497680664, 0.9910978078842163, 1.0150388479232788, 1.0183871984481812]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[168, 58, 15, 163, 45, 7, 121]</t>
+          <t>[80, 106, 109, 5, 4, 92, 32]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.353519916534424, 3.1355085372924805, 3.852335214614868, 2.665560245513916, 2.4172964096069336, 2.481671094894409]</t>
+          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 1.9255344867706299]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>0.5129613876342773</v>
+        <v>1.003068290963726</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -923,7 +915,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -934,22 +926,20 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
-      <c r="F6" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
@@ -958,51 +948,51 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[107, 77, 121, 7, 29, 169, 36]</t>
+          <t>[106, 75, 11, 52, 100, 93, 109]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[0.9198511242866516, 0.9164473414421082, 1.0153549909591675, 0.964373767375946, 1.1352434158325195, 1.3090776205062866, 1.209598422050476]</t>
+          <t>[0.28504446148872375, 0.2907591462135315, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.6391661763191223, 0.6743265986442566]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[7, 121, 169, 139, 102, 58, 9]</t>
+          <t>[106, 109, 5, 41, 4, 92, 119]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[0.964373767375946, 1.0153549909591675, 1.3090776205062866, 1.624017596244812, 1.7274311780929565, 1.9255344867706299, 1.6671695709228516]</t>
+          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8182864189147949</v>
+        <v>0.6241941382035605</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1011,7 +1001,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1012,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -1033,11 +1023,9 @@
       <c r="E7" t="n">
         <v>7</v>
       </c>
-      <c r="F7" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
@@ -1046,14 +1034,14 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1063,34 +1051,34 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[48, 71, 155, 79, 83, 6, 103]</t>
+          <t>[4, 91, 116, 20, 3, 39, 111]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.0445706844329834, 0.7342439293861389, 1.3509747982025146, 0.9219695329666138, 0.9574594497680664, 1.027353048324585, 0.8839975595474243]</t>
+          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 0.8294775485992432, 0.8319898843765259, 0.972034752368927]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[102, 139, 143, 9, 7, 121, 168]</t>
+          <t>[4, 32, 5, 106, 80, 109, 41]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.0150388479232788, 1.0873119831085205, 1.158658742904663, 1.3480218648910522, 1.4703971147537231, 1.486830234527588, 2.204462766647339]</t>
+          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.4751609563827515, 1.486830234527588]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8288118839263916</v>
+        <v>0.8307337454311088</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1099,7 +1087,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1098,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
@@ -1121,11 +1109,9 @@
       <c r="E8" t="n">
         <v>7</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
@@ -1137,7 +1123,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
@@ -1151,34 +1137,34 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[97, 139, 17, 71, 132, 119, 79]</t>
+          <t>[80, 75, 100, 11, 93, 90, 56]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[0.2907591462135315, 0.28504446148872375, 0.3098526895046234, 0.4762324094772339, 0.6092221736907959, 0.693737268447876, 0.6997390985488892]</t>
+          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5670149326324463, 0.5760982632637024, 0.5833657383918762]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[139, 143, 9, 58, 7, 121, 153]</t>
+          <t>[80, 109, 5, 41, 4, 92, 119]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6743265986442566, 0.8478673100471497, 1.0150388479232788, 1.2241731882095337, 1.3018968105316162, 1.6027143001556396]</t>
+          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>0.6508306264877319</v>
+        <v>0.5715566000590809</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1187,7 +1173,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1184,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1209,11 +1195,9 @@
       <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
@@ -1222,14 +1206,14 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="b">
         <v>0</v>
@@ -1239,34 +1223,34 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[7, 120, 150, 31, 45, 6, 137]</t>
+          <t>[44, 56, 85, 113, 86, 75, 10]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 0.5519679188728333, 0.735078752040863, 0.7528611421585083, 1.0153549909591675, 0.8294775485992432, 1.004456877708435]</t>
+          <t>[0.3796297311782837, 0.39794325828552246, 0.4668952524662018, 0.5109684467315674, 0.533180832862854, 0.5471352934837341, 0.5629119277000427]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[7, 45, 9, 139, 102, 58, 143]</t>
+          <t>[106, 5, 80, 119, 41, 92, 4]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[0.3686896860599518, 1.0153549909591675, 1.0848945379257202, 1.1840670108795166, 1.3018968105316162, 1.486830234527588, 1.4751609563827515]</t>
+          <t>[0.6349484324455261, 0.639224112033844, 0.6743265986442566, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7623581886291504</v>
+        <v>0.5401580622085429</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1275,7 +1259,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1270,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -1297,11 +1281,9 @@
       <c r="E10" t="n">
         <v>7</v>
       </c>
-      <c r="F10" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
@@ -1310,14 +1292,14 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1327,34 +1309,34 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[102, 97, 132, 17, 119, 84, 124]</t>
+          <t>[125, 54, 10, 86, 97, 44, 65]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.36131569743156433, 0.36825448274612427, 0.38687416911125183, 0.5760982632637024, 0.6288474202156067, 0.5670149326324463]</t>
+          <t>[0.7418535351753235, 0.8169267773628235, 0.8513126373291016, 0.9142948985099792, 0.9250989556312561, 0.9332956671714783, 0.9378286004066467]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[102, 143, 9, 58, 7, 121, 153]</t>
+          <t>[5, 109, 106, 80, 92, 41, 4]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[0.28504446148872375, 0.6349484324455261, 0.7289791107177734, 1.0873119831085205, 1.126319169998169, 1.1840670108795166, 1.4750926494598389]</t>
+          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 1.913097858428955, 2.070220708847046, 2.0944221019744873]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5833283066749573</v>
+        <v>0.9291972901307302</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1363,7 +1345,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1356,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
@@ -1385,11 +1367,9 @@
       <c r="E11" t="n">
         <v>7</v>
       </c>
-      <c r="F11" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
@@ -1398,14 +1378,14 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
@@ -1415,34 +1395,34 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[76, 63, 97, 147, 110, 57, 9]</t>
+          <t>[55, 25, 18, 50, 53, 57, 95]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[0.39794325828552246, 0.3796297311782837, 0.5471352934837341, 0.5109684467315674, 0.4668952524662018, 0.5869107246398926, 0.639224112033844]</t>
+          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.1135129928588867, 1.1277869939804077, 1.2100275754928589, 1.2619000673294067]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[139, 102, 9, 153, 58, 121, 7]</t>
+          <t>[32, 106, 92, 4, 5, 80, 109]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[0.6349484324455261, 0.6743265986442566, 0.639224112033844, 1.1125237941741943, 1.158658742904663, 1.4751609563827515, 1.557084560394287]</t>
+          <t>[1.3090776205062866, 1.981188416481018, 1.9998292922973633, 2.0157172679901123, 2.030216693878174, 2.1122682094573975, 2.1427667140960693]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>0.600724458694458</v>
+        <v>1.168907214591322</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,7 +1431,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.895432</t>
         </is>
       </c>
     </row>
@@ -1462,10 +1442,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>153</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -1473,11 +1453,9 @@
       <c r="E12" t="n">
         <v>7</v>
       </c>
-      <c r="F12" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
@@ -1486,14 +1464,14 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N12" t="b">
         <v>0</v>
@@ -1503,34 +1481,34 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[66, 160, 82, 74, 9, 16, 76]</t>
+          <t>[70, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[1.022521734237671, 0.7418535351753235, 1.0917242765426636, 0.8169267773628235, 0.9712804555892944, 0.8513126373291016, 0.9974803328514099]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[9, 143, 139, 102, 58, 121, 169]</t>
+          <t>[70, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[0.9712804555892944, 1.1125237941741943, 1.4750926494598389, 1.6027143001556396, 2.070220708847046, 1.913097858428955, 2.342046022415161]</t>
+          <t>[0.6938520073890686, 0.7095147371292114, 1.1889803409576416, 1.2714117765426636, 1.3206110000610352, 1.4472988843917847, 1.5296647548675537]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8640673160552979</v>
+        <v>1.383955013689414</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1539,7 +1517,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -1550,10 +1528,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -1561,11 +1539,9 @@
       <c r="E13" t="n">
         <v>7</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
@@ -1574,14 +1550,14 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N13" t="b">
         <v>0</v>
@@ -1591,34 +1567,34 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[4, 15, 106, 118, 27, 13, 89]</t>
+          <t>[82, 112, 94, 128, 96, 114, 17]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[1.961000919342041, 2.4762635231018066, 2.548816442489624, 3.9857804775238037, 2.8144288063049316, 2.781341075897217, 3.2413923740386963]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[15, 21, 168, 169, 45, 58, 7]</t>
+          <t>[82, 112, 94, 128, 96, 114, 17]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.4762635231018066, 3.852335214614868, 3.940241575241089, 3.849271774291992, 3.7356345653533936, 4.5531134605407715, 4.46036958694458]</t>
+          <t>[1.1962192058563232, 1.4052584171295166, 1.5090450048446655, 1.5114425420761108, 1.5793581008911133, 1.7265819311141968, 2.42822527885437]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.012810945510864</v>
+        <v>1.652970040188325</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1627,7 +1603,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -1638,10 +1614,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -1649,11 +1625,9 @@
       <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="F14" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
@@ -1662,14 +1636,14 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N14" t="b">
         <v>0</v>
@@ -1679,34 +1653,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[1, 123, 21, 167, 161, 3, 53]</t>
+          <t>[88, 129, 23, 68, 48, 7, 70]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.4420248568058014, 0.4420248568058014, 0.7553806304931641, 0.8172926902770996, 1.0266729593276978, 1.2000261545181274, 1.2940304279327393]</t>
+          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[21, 58, 15, 163, 7, 45, 121]</t>
+          <t>[88, 129, 23, 68, 48, 7, 70]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[0.7553806304931641, 2.204462766647339, 2.9099297523498535, 3.940241575241089, 2.5074117183685303, 2.7999069690704346, 2.5194039344787598]</t>
+          <t>[0.5247544646263123, 1.026412844657898, 1.0364985466003418, 1.042699933052063, 1.0627883672714233, 1.2714117765426636, 1.5825912952423096]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>0.5337993502616882</v>
+        <v>1.16710008127658</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1715,7 +1689,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -1726,10 +1700,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1737,11 +1711,9 @@
       <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="F15" t="n">
-        <v>1.034080270809076</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
@@ -1750,14 +1722,14 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1767,34 +1739,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[75, 36, 29, 107, 69, 73, 45]</t>
+          <t>[48, 88, 17, 68, 129, 7, 70]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.8769850134849548, 0.9809556007385254, 0.998561441898346, 1.3458682298660278, 1.1135129928588867, 1.1277869939804077, 1.3090776205062866]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[45, 15, 7, 153, 139, 121, 102]</t>
+          <t>[48, 88, 17, 68, 129, 7, 70]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[1.3090776205062866, 2.5544352531433105, 2.0157172679901123, 2.342046022415161, 1.981188416481018, 1.9998292922973633, 2.1122682094573975]</t>
+          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.215668797492981, 1.3206110000610352, 1.6141602993011475]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>0.7842975854873657</v>
+        <v>1.268139936715896</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1803,7 +1775,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.421503</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -1814,10 +1786,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -1825,11 +1797,9 @@
       <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="F16" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
@@ -1838,14 +1808,14 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1855,34 +1825,34 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[122, 104, 114, 112, 59, 38, 134]</t>
+          <t>[88, 23, 17, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[3.548219919204712, 8.691213607788086, 5.758365631103516, 6.487487316131592, 9.90291976928711, 6.694366455078125, 5.858821868896484]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[104, 94, 118, 156, 81, 87, 60]</t>
+          <t>[88, 23, 17, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 7.731835842132568, 8.609739303588867, 8.581768989562988, 8.94638442993164, 9.074629783630371, 9.31938362121582]</t>
+          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.135951399803162</v>
+        <v>1.574094967428715</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1891,7 +1861,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -1902,10 +1872,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -1913,11 +1883,9 @@
       <c r="E17" t="n">
         <v>7</v>
       </c>
-      <c r="F17" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
@@ -1926,14 +1894,14 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1943,34 +1911,34 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[156, 109, 87, 81, 94, 162, 129]</t>
+          <t>[88, 17, 48, 23, 7, 70, 129]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.4434309005737305, 2.300889730453491, 2.6279022693634033, 2.213388204574585, 2.5505406856536865, 3.038969039916992]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[156, 87, 94, 109, 81, 129, 118]</t>
+          <t>[88, 17, 48, 23, 7, 70, 129]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.300889730453491, 2.213388204574585, 2.4434309005737305, 2.6279022693634033, 3.038969039916992, 6.031808853149414]</t>
+          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.1688058376312256, 1.1889803409576416, 1.2844855785369873, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6524121761322021</v>
+        <v>1.236732984053846</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1979,7 +1947,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -1990,10 +1958,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -2001,11 +1969,9 @@
       <c r="E18" t="n">
         <v>7</v>
       </c>
-      <c r="F18" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
@@ -2014,14 +1980,14 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.7142857142857143</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2031,34 +1997,34 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[157, 54, 108, 162, 60, 87, 96]</t>
+          <t>[7, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.3550022840499878, 2.110875129699707, 2.9421937465667725, 2.3781371116638184, 2.6279022693634033, 2.9225618839263916, 3.3530654907226562]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[60, 94, 87, 109, 156, 129, 118]</t>
+          <t>[7, 129, 68, 17, 23, 88, 102]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.6279022693634033, 2.7967379093170166, 2.9225618839263916, 3.6776535511016846, 3.725713014602661, 3.496691942214966, 5.9708662033081055]</t>
+          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.7865649461746216, 1.9720324277877808]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6767674088478088</v>
+        <v>1.700362617842271</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2067,7 +2033,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2078,10 +2044,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -2089,11 +2055,9 @@
       <c r="E19" t="n">
         <v>7</v>
       </c>
-      <c r="F19" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
@@ -2105,7 +2069,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
@@ -2119,34 +2083,34 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[109, 60, 94, 81, 19, 156, 62]</t>
+          <t>[17, 88, 131, 114, 115, 112, 129]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.300889730453491, 2.022925615310669, 2.9225618839263916, 3.8935210704803467, 3.228111982345581, 4.250108242034912]</t>
+          <t>[2.0094025135040283, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.232712984085083, 2.265591859817505, 2.2751543521881104]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[109, 94, 60, 81, 156, 129, 118]</t>
+          <t>[17, 88, 114, 112, 129, 48, 68]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.022925615310669, 2.300889730453491, 2.9225618839263916, 3.228111982345581, 3.639315605163574, 5.8619890213012695]</t>
+          <t>[2.0094025135040283, 2.0699026584625244, 2.195941925048828, 2.265591859817505, 2.2751543521881104, 2.3073177337646484, 2.3077964782714844]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7462657690048218</v>
+        <v>2.249152495282717</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2155,7 +2119,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2166,22 +2130,20 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
-      <c r="F20" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
@@ -2190,51 +2152,51 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="N20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="b">
         <v>1</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[66, 87, 156, 60, 109, 157, 162]</t>
+          <t>[112, 94, 96, 128, 9, 114, 17]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 1, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.2703914642333984, 2.022925615310669, 2.2484099864959717, 2.213388204574585, 2.7271506786346436, 2.191220998764038, 2.463343381881714]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[87, 60, 156, 109, 81, 129, 118]</t>
+          <t>[112, 94, 96, 128, 9, 114, 17]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.022925615310669, 2.213388204574585, 2.2484099864959717, 2.7271506786346436, 2.7967379093170166, 3.532566547393799, 5.384163856506348]</t>
+          <t>[0.5542061924934387, 0.9788116216659546, 1.1553232669830322, 1.1788504123687744, 1.1962192058563232, 1.1968179941177368, 2.1950740814208984]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6364556550979614</v>
+        <v>1.196518611438734</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2243,7 +2205,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2254,10 +2216,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D21" t="b">
         <v>0</v>
@@ -2265,11 +2227,9 @@
       <c r="E21" t="n">
         <v>7</v>
       </c>
-      <c r="F21" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
@@ -2278,14 +2238,14 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N21" t="b">
         <v>0</v>
@@ -2295,34 +2255,34 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[25, 0, 122, 59, 114, 62, 38]</t>
+          <t>[17, 48, 23, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 9.207416534423828, 8.894898414611816, 13.830842971801758, 10.461819648742676, 11.372812271118164, 9.74061107635498]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[25, 156, 94, 118, 109, 60, 87]</t>
+          <t>[17, 48, 23, 68, 129, 7, 114]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[8.691213607788086, 9.828558921813965, 9.933645248413086, 10.808511734008789, 11.14076042175293, 11.009100914001465, 10.901507377624512]</t>
+          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.566836953163147</v>
+        <v>1.2992927055172</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2331,7 +2291,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2342,10 +2302,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -2353,11 +2313,9 @@
       <c r="E22" t="n">
         <v>7</v>
       </c>
-      <c r="F22" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
@@ -2366,14 +2324,14 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="N22" t="b">
         <v>0</v>
@@ -2383,34 +2341,34 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[87, 60, 19, 156, 94, 62, 81]</t>
+          <t>[128, 114, 96, 82, 112, 9, 88]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.4434309005737305, 3.7905890941619873, 3.322721242904663, 2.7271506786346436, 4.417076587677002, 3.6776535511016846]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[87, 60, 94, 156, 81, 129, 118]</t>
+          <t>[128, 114, 96, 82, 112, 9, 88]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.0273101329803467, 2.4434309005737305, 2.7271506786346436, 3.322721242904663, 3.6776535511016846, 3.9307637214660645, 6.2379069328308105]</t>
+          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>0.7966963052749634</v>
+        <v>1.247830959579245</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2419,7 +2377,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2430,10 +2388,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D23" t="b">
         <v>0</v>
@@ -2441,11 +2399,9 @@
       <c r="E23" t="n">
         <v>7</v>
       </c>
-      <c r="F23" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
@@ -2454,14 +2410,14 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>0.8571428571428571</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>0.1428571428571428</v>
+        <v>1</v>
       </c>
       <c r="N23" t="b">
         <v>0</v>
@@ -2471,34 +2427,34 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[62, 129, 163, 4, 151, 89, 59]</t>
+          <t>[94, 128, 114, 82, 112, 9, 68]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[3.9940896034240723, 3.612931966781616, 3.9857804775238037, 3.513723611831665, 3.133359909057617, 3.7720181941986084, 8.738912582397461]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[129, 94, 87, 81, 156, 60, 109]</t>
+          <t>[94, 128, 114, 82, 112, 9, 68]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[3.612931966781616, 5.384163856506348, 5.8619890213012695, 5.9708662033081055, 6.016942501068115, 6.031808853149414, 6.2379069328308105]</t>
+          <t>[0.8630491495132446, 0.9548653364181519, 1.0304895639419556, 1.1553232669830322, 1.2386415004730225, 1.5793581008911133, 2.136317014694214]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.047851800918579</v>
+        <v>1.408999775936314</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2507,7 +2463,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2518,22 +2474,20 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
-      <c r="F24" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
@@ -2542,51 +2496,51 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="N24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[62, 60, 118, 54, 89, 81, 109]</t>
+          <t>[129, 7, 17, 70, 88, 68, 23]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[3.3579466342926025, 3.038969039916992, 3.612931966781616, 3.0922813415527344, 2.8238894939422607, 3.496691942214966, 3.9307637214660645]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[60, 81, 118, 87, 156, 94, 109]</t>
+          <t>[129, 7, 17, 70, 88, 68, 23]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.038969039916992, 3.496691942214966, 3.612931966781616, 3.639315605163574, 3.699251413345337, 3.532566547393799, 3.9307637214660645]</t>
+          <t>[1.225460410118103, 1.5296647548675537, 1.7913583517074585, 1.9720324277877808, 2.007189989089966, 2.0494744777679443, 2.268449068069458]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.016021013259888</v>
+        <v>2.028332337518482</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2595,7 +2549,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2606,22 +2560,20 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>7</v>
       </c>
-      <c r="F25" t="n">
-        <v>0.9811869674064627</v>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
@@ -2630,51 +2582,51 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="N25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="b">
         <v>1</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[60, 94, 0, 109, 162, 87, 98]</t>
+          <t>[82, 94, 114, 128, 96, 9, 88]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.2484099864959717, 3.682757616043091, 3.322721242904663, 2.8477210998535156, 3.228111982345581, 3.136768102645874]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[60, 94, 109, 87, 81, 129, 118]</t>
+          <t>[82, 94, 114, 128, 96, 9, 88]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.7238720655441284, 2.2484099864959717, 3.322721242904663, 3.228111982345581, 3.725713014602661, 3.699251413345337, 6.016942501068115]</t>
+          <t>[0.5542061924934387, 0.9866169691085815, 1.0372637510299683, 1.1374363899230957, 1.2386415004730225, 1.4052584171295166, 2.102363109588623]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7547435164451599</v>
+        <v>1.321949954095157</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2683,7 +2635,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.452775</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2694,7 +2646,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="C26" t="n">
         <v>7</v>
@@ -2705,11 +2657,9 @@
       <c r="E26" t="n">
         <v>7</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.051438290771685</v>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -2718,14 +2668,14 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -2735,34 +2685,34 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[156, 109, 60, 104, 87, 23, 19]</t>
+          <t>[128, 94, 96, 112, 82, 88, 9]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[3.682757616043091, 5.021600246429443, 4.706303119659424, 9.207416534423828, 5.405718803405762, 8.388983726501465, 7.5876994132995605]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[8, 122, 38, 114, 98, 112, 14]</t>
+          <t>[128, 94, 96, 112, 82, 88, 9]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[6.087997913360596, 7.964256763458252, 8.471141815185547, 7.782583713531494, 5.954493045806885, 9.602742195129395, 6.843430519104004]</t>
+          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.6623544692993164, 1.7265819311141968]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.26019549369812</v>
+        <v>1.429586236805264</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2771,7 +2721,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.480949</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2732,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C27" t="n">
         <v>7</v>
@@ -2793,11 +2743,9 @@
       <c r="E27" t="n">
         <v>7</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.051438290771685</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -2806,14 +2754,14 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0.7142857142857143</v>
       </c>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="b">
         <v>0</v>
@@ -2823,34 +2771,34 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[46, 53, 3, 32, 130, 155, 142]</t>
+          <t>[94, 114, 96, 112, 82, 9, 88]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[0.8132038116455078, 1.586868405342102, 1.5875941514968872, 1.4857956171035767, 1.6002230644226074, 1.9224257469177246, 1.6309336423873901]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[38, 98, 0, 112, 122, 14, 114]</t>
+          <t>[94, 114, 96, 112, 82, 9, 88]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[3.809053421020508, 3.489682912826538, 6.087997913360596, 5.247391700744629, 5.183218955993652, 4.85034704208374, 7.00767183303833]</t>
+          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6378386616706848</v>
+        <v>1.345146454353908</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2859,7 +2807,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.480949</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
@@ -2870,7 +2818,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="C28" t="n">
         <v>7</v>
@@ -2881,11 +2829,9 @@
       <c r="E28" t="n">
         <v>7</v>
       </c>
-      <c r="F28" t="n">
-        <v>1.051438290771685</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
@@ -2897,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
@@ -2911,7 +2857,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[92, 166, 28, 134, 34, 88, 116]</t>
+          <t>[7, 17, 88, 23, 102, 70, 68]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2921,24 +2867,24 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
+          <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[92, 166, 28, 134, 34, 88, 116]</t>
+          <t>[7, 17, 88, 23, 102, 70, 68]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[0.6938520073890686, 0.7095147371292114, 1.2714117765426636, 1.5296647548675537, 1.3206110000610352, 1.1889803409576416, 1.4472988843917847]</t>
+          <t>[0.7095147371292114, 1.026412844657898, 1.1512864828109741, 1.215668797492981, 1.225460410118103, 1.2321480512619019, 1.2921749353408813]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8430664539337158</v>
+        <v>1.228804292730413</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2947,1772 +2893,12 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>14</v>
-      </c>
-      <c r="C29" t="n">
-        <v>7</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>7</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="b">
-        <v>0</v>
-      </c>
-      <c r="O29" t="b">
-        <v>1</v>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>[105, 146, 165, 125, 127, 148, 98]</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>[105, 146, 165, 125, 127, 148, 98]</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>[1.1962192058563232, 1.4052584171295166, 1.5114425420761108, 1.5090450048446655, 1.5793581008911133, 1.7265819311141968, 2.7678287029266357]</t>
-        </is>
-      </c>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.7683334350585938</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>28</v>
-      </c>
-      <c r="C30" t="n">
-        <v>7</v>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>7</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="b">
-        <v>0</v>
-      </c>
-      <c r="O30" t="b">
-        <v>1</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>[116, 67, 34, 166, 88, 12, 92]</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>[116, 67, 34, 166, 88, 12, 92]</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 1.0627883672714233, 1.0364985466003418, 1.026412844657898, 1.042699933052063, 1.2714117765426636, 1.5825912952423096]</t>
-        </is>
-      </c>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0.7731496095657349</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>34</v>
-      </c>
-      <c r="C31" t="n">
-        <v>7</v>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>7</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="b">
-        <v>0</v>
-      </c>
-      <c r="O31" t="b">
-        <v>1</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>[67, 116, 28, 88, 12, 166, 92]</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>[67, 116, 28, 88, 12, 166, 92]</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>[0.5955532789230347, 0.7853057980537415, 1.0364985466003418, 1.1688058376312256, 1.3206110000610352, 1.215668797492981, 1.6141602993011475]</t>
-        </is>
-      </c>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0.8410900831222534</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>38</v>
-      </c>
-      <c r="C32" t="n">
-        <v>7</v>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>7</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N32" t="b">
-        <v>0</v>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>[112, 72, 51, 122, 56, 157, 81]</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>[4.054708003997803, 2.8743762969970703, 3.549809217453003, 4.931705474853516, 3.940061569213867, 3.491143226623535, 4.050656318664551]</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>[8, 112, 122, 98, 0, 134, 14]</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>[3.809053421020508, 4.054708003997803, 4.931705474853516, 4.90034294128418, 8.471141815185547, 5.014385223388672, 5.741334438323975]</t>
-        </is>
-      </c>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.0386723279953</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>67</v>
-      </c>
-      <c r="C33" t="n">
-        <v>7</v>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="b">
-        <v>0</v>
-      </c>
-      <c r="O33" t="b">
-        <v>1</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>[116, 34, 28, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>[116, 34, 28, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>[0.5768178105354309, 0.5955532789230347, 1.0627883672714233, 1.151566743850708, 1.4561500549316406, 1.6920398473739624, 1.856772780418396]</t>
-        </is>
-      </c>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.9720406532287598</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>88</v>
-      </c>
-      <c r="C34" t="n">
-        <v>7</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="b">
-        <v>0</v>
-      </c>
-      <c r="O34" t="b">
-        <v>1</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>[116, 28, 67, 92, 34, 12, 166]</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>[116, 28, 67, 92, 34, 12, 166]</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>[0.963847815990448, 1.042699933052063, 1.151566743850708, 1.2844855785369873, 1.1688058376312256, 1.1889803409576416, 1.2921749353408813]</t>
-        </is>
-      </c>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0.8274984955787659</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>92</v>
-      </c>
-      <c r="C35" t="n">
-        <v>7</v>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>7</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="b">
-        <v>0</v>
-      </c>
-      <c r="O35" t="b">
-        <v>1</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>[12, 166, 88, 28, 34, 134, 116]</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>[12, 166, 88, 28, 34, 134, 116]</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>[0.6938520073890686, 1.2321480512619019, 1.2844855785369873, 1.5825912952423096, 1.6141602993011475, 1.9720324277877808, 1.7865649461746216]</t>
-        </is>
-      </c>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0.9185517430305481</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>98</v>
-      </c>
-      <c r="C36" t="n">
-        <v>7</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>7</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N36" t="b">
-        <v>0</v>
-      </c>
-      <c r="O36" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>[146, 28, 105, 116, 170, 148, 51]</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 0, 1, 0]</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>[2.265591859817505, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.1498682498931885, 2.195941925048828, 2.633648633956909]</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>[146, 8, 28, 105, 116, 148, 165]</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>[2.265591859817505, 3.489682912826538, 2.0094025135040283, 2.374429702758789, 2.0699026584625244, 2.195941925048828, 2.442943572998047]</t>
-        </is>
-      </c>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.081908226013184</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>105</v>
-      </c>
-      <c r="C37" t="n">
-        <v>7</v>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>7</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="b">
-        <v>0</v>
-      </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>[146, 125, 14, 127, 165, 148, 134]</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>[146, 125, 14, 127, 165, 148, 134]</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9788116216659546, 1.1962192058563232, 1.1553232669830322, 1.1788504123687744, 1.1968179941177368, 2.302386522293091]</t>
-        </is>
-      </c>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0.5828993320465088</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>112</v>
-      </c>
-      <c r="C38" t="n">
-        <v>7</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>7</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="N38" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" t="b">
-        <v>1</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>[122, 38, 25, 114, 59, 56, 165]</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>[1, 1, 0, 1, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>[4.337198257446289, 4.054708003997803, 6.487487316131592, 5.44020938873291, 8.82075309753418, 5.109254360198975, 4.3913702964782715]</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>[38, 122, 8, 114, 165, 14, 127]</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>[4.054708003997803, 4.337198257446289, 5.247391700744629, 5.44020938873291, 4.3913702964782715, 4.788558006286621, 4.678295612335205]</t>
-        </is>
-      </c>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
-      <c r="V38" t="n">
-        <v>1.370536804199219</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>114</v>
-      </c>
-      <c r="C39" t="n">
-        <v>7</v>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>0.1428571428571428</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="N39" t="b">
-        <v>0</v>
-      </c>
-      <c r="O39" t="b">
-        <v>1</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>[122, 25, 14, 105, 112, 127, 165]</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>[1, 0, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>[4.087904453277588, 5.758365631103516, 3.762176036834717, 3.718254804611206, 5.44020938873291, 3.840088129043579, 3.842573881149292]</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>[122, 14, 112, 105, 127, 165, 125]</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>[4.087904453277588, 3.762176036834717, 5.44020938873291, 3.718254804611206, 3.840088129043579, 3.842573881149292, 3.7610156536102295]</t>
-        </is>
-      </c>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.276239633560181</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
-      </c>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>116</v>
-      </c>
-      <c r="C40" t="n">
-        <v>7</v>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" t="b">
-        <v>1</v>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>[28, 67, 34, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>[28, 67, 34, 88, 166, 12, 148]</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>[0.5247544646263123, 0.5768178105354309, 0.7853057980537415, 0.963847815990448, 1.1512864828109741, 1.4472988843917847, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0.8465672731399536</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>122</v>
-      </c>
-      <c r="C41" t="n">
-        <v>7</v>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="N41" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" t="b">
-        <v>1</v>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>[25, 112, 114, 38, 104, 98, 14]</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>[0, 1, 1, 1, 0, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>[3.548219919204712, 4.337198257446289, 4.087904453277588, 4.931705474853516, 8.894898414611816, 4.53907585144043, 4.718254566192627]</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>[112, 114, 38, 8, 98, 14, 127]</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>[4.337198257446289, 4.087904453277588, 4.931705474853516, 5.183218955993652, 4.53907585144043, 4.718254566192627, 4.522115707397461]</t>
-        </is>
-      </c>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.354288339614868</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>125</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7</v>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>7</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" t="b">
-        <v>1</v>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146, 14, 116]</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>[165, 148, 127, 105, 146, 14, 116]</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.5437226295471191, 0.8630491495132446, 0.9788116216659546, 0.9866169691085815, 1.5090450048446655, 1.987839698791504]</t>
-        </is>
-      </c>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0.5847383141517639</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>127</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7</v>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>7</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" t="b">
-        <v>1</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>[125, 165, 105, 148, 146, 14, 134]</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>[125, 165, 105, 148, 146, 14, 134]</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>[0.8630491495132446, 0.9548653364181519, 1.1553232669830322, 1.0304895639419556, 1.2386415004730225, 1.5793581008911133, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.6389483213424683</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>134</v>
-      </c>
-      <c r="C44" t="n">
-        <v>7</v>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>7</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" t="b">
-        <v>1</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>[166, 12, 92, 28, 105, 116, 127]</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>[166, 12, 92, 28, 105, 116, 127]</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>[1.225460410118103, 1.5296647548675537, 1.9720324277877808, 1.7913583517074585, 2.302386522293091, 2.007189989089966, 2.4712913036346436]</t>
-        </is>
-      </c>
-      <c r="U44" t="n">
-        <v>5</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.032703876495361</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>146</v>
-      </c>
-      <c r="C45" t="n">
-        <v>7</v>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" t="b">
-        <v>1</v>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>[105, 125, 165, 148, 127, 14, 98]</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>[105, 125, 165, 148, 127, 14, 98]</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>[0.5542061924934387, 0.9866169691085815, 1.1374363899230957, 1.0372637510299683, 1.2386415004730225, 1.4052584171295166, 2.265591859817505]</t>
-        </is>
-      </c>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.6032094955444336</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>148</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7</v>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>7</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" t="b">
-        <v>1</v>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105, 14, 116]</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>[165, 125, 127, 146, 105, 14, 116]</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>[0.49568384885787964, 0.5437226295471191, 1.0304895639419556, 1.0372637510299683, 1.1968179941177368, 1.7265819311141968, 1.6623544692993164]</t>
-        </is>
-      </c>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0.7290010452270508</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>165</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>7</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" t="b">
-        <v>1</v>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105, 14, 116]</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.0850367546081543]</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>[125, 148, 127, 146, 105, 14, 98]</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>[0.4555348753929138, 0.49568384885787964, 0.9548653364181519, 1.1374363899230957, 1.1788504123687744, 1.5114425420761108, 2.442943572998047]</t>
-        </is>
-      </c>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0.6113778352737427</v>
-      </c>
-      <c r="W47" t="n">
-        <v>0</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>glass</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>166</v>
-      </c>
-      <c r="C48" t="n">
-        <v>7</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>7</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1.051438290771685</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>proporcion</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" t="b">
-        <v>1</v>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>[12, 134, 28, 92, 116, 34, 67]</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>[12, 134, 28, 92, 116, 34, 67]</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>[0.7095147371292114, 1.225460410118103, 1.026412844657898, 1.2321480512619019, 1.1512864828109741, 1.215668797492981, 1.4561500549316406]</t>
-        </is>
-      </c>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0.8136365413665771</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0</v>
-      </c>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>2025-10-23T12:45:49.480949</t>
+          <t>2025-10-27T20:44:51.912210</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:Z48">
+  <conditionalFormatting sqref="A2:Z28">
     <cfRule type="expression" priority="1" dxfId="0">
       <formula>=$D2=FALSE</formula>
     </cfRule>
